--- a/risultati-firewall-analysis.xlsx
+++ b/risultati-firewall-analysis.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Desktop\firewall-analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simob\OneDrive\Desktop\firewall-analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35131113-E3C9-4017-90C9-47B418254ECD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5CA5A55-E064-41CB-94ED-9304B45F38EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="40">
   <si>
     <t>Variazione porte. Caso base: 200 nrules, 40 anomalies, 0.5 proto</t>
   </si>
@@ -145,6 +145,18 @@
   <si>
     <t>Variazione porte (NO WELL-KNOWN). Caso base: 200 nrules, 40 anomalies, 0.5 proto</t>
   </si>
+  <si>
+    <t>Variazione resolution strategy. Caso base: 200 nrules, 40 anomalies, 0.2 port, 0.5 proto</t>
+  </si>
+  <si>
+    <t>DENY FIRST</t>
+  </si>
+  <si>
+    <t>PRIORITY FIRST</t>
+  </si>
+  <si>
+    <t>ALLOW FIRST</t>
+  </si>
 </sst>
 </file>
 
@@ -185,14 +197,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -473,50 +483,50 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="E3:CB131"/>
+  <dimension ref="E3:CB154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B61" zoomScale="77" workbookViewId="0">
-      <selection activeCell="Z107" sqref="Z107"/>
+    <sheetView tabSelected="1" topLeftCell="G135" zoomScale="77" workbookViewId="0">
+      <selection activeCell="Q153" sqref="Q153"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.36328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.36328125" customWidth="1"/>
-    <col min="21" max="21" width="16.36328125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="18.81640625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" customWidth="1"/>
+    <col min="21" max="21" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="5:80" x14ac:dyDescent="0.35">
-      <c r="E3" s="1" t="s">
+    <row r="3" spans="5:80" x14ac:dyDescent="0.25">
+      <c r="E3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
     </row>
-    <row r="5" spans="5:80" x14ac:dyDescent="0.35">
+    <row r="5" spans="5:80" x14ac:dyDescent="0.25">
       <c r="E5" t="s">
         <v>1</v>
       </c>
       <c r="L5" t="s">
         <v>8</v>
       </c>
-      <c r="S5" s="2" t="s">
+      <c r="S5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="T5" s="2"/>
-      <c r="U5" s="2"/>
-      <c r="V5" s="2"/>
-      <c r="W5" s="2"/>
-      <c r="X5" s="2"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
       <c r="Z5" t="s">
         <v>10</v>
       </c>
@@ -542,7 +552,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="5:80" x14ac:dyDescent="0.35">
+    <row r="6" spans="5:80" x14ac:dyDescent="0.25">
       <c r="E6" t="s">
         <v>2</v>
       </c>
@@ -579,22 +589,22 @@
       <c r="Q6" t="s">
         <v>7</v>
       </c>
-      <c r="S6" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="T6" s="2" t="s">
+      <c r="S6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="T6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="U6" s="2" t="s">
+      <c r="U6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="V6" s="2" t="s">
+      <c r="V6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="W6" s="2" t="s">
+      <c r="W6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="X6" s="2" t="s">
+      <c r="X6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="Z6" t="s">
@@ -742,7 +752,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="5:80" x14ac:dyDescent="0.35">
+    <row r="7" spans="5:80" x14ac:dyDescent="0.25">
       <c r="E7">
         <v>387</v>
       </c>
@@ -779,22 +789,22 @@
       <c r="Q7">
         <v>418320</v>
       </c>
-      <c r="S7" s="2">
+      <c r="S7" s="1">
         <v>2841</v>
       </c>
-      <c r="T7" s="2">
+      <c r="T7" s="1">
         <v>572</v>
       </c>
-      <c r="U7" s="2">
+      <c r="U7" s="1">
         <v>2081</v>
       </c>
-      <c r="V7" s="2">
+      <c r="V7" s="1">
         <v>38</v>
       </c>
-      <c r="W7" s="2">
+      <c r="W7" s="1">
         <v>150</v>
       </c>
-      <c r="X7" s="2">
+      <c r="X7" s="1">
         <v>920304</v>
       </c>
       <c r="Z7">
@@ -942,7 +952,7 @@
         <v>1254960</v>
       </c>
     </row>
-    <row r="8" spans="5:80" x14ac:dyDescent="0.35">
+    <row r="8" spans="5:80" x14ac:dyDescent="0.25">
       <c r="E8">
         <v>320</v>
       </c>
@@ -979,22 +989,22 @@
       <c r="Q8">
         <v>511056</v>
       </c>
-      <c r="S8" s="2">
+      <c r="S8" s="1">
         <v>2883</v>
       </c>
-      <c r="T8" s="2">
+      <c r="T8" s="1">
         <v>1011</v>
       </c>
-      <c r="U8" s="2">
+      <c r="U8" s="1">
         <v>1852</v>
       </c>
-      <c r="V8" s="2">
+      <c r="V8" s="1">
         <v>8</v>
       </c>
-      <c r="W8" s="2">
+      <c r="W8" s="1">
         <v>12</v>
       </c>
-      <c r="X8" s="2">
+      <c r="X8" s="1">
         <v>851760</v>
       </c>
       <c r="Z8">
@@ -1142,7 +1152,7 @@
         <v>1277640</v>
       </c>
     </row>
-    <row r="9" spans="5:80" x14ac:dyDescent="0.35">
+    <row r="9" spans="5:80" x14ac:dyDescent="0.25">
       <c r="E9">
         <v>246</v>
       </c>
@@ -1179,22 +1189,22 @@
       <c r="Q9">
         <v>501984</v>
       </c>
-      <c r="S9" s="2">
+      <c r="S9" s="1">
         <v>3525</v>
       </c>
-      <c r="T9" s="2">
+      <c r="T9" s="1">
         <v>401</v>
       </c>
-      <c r="U9" s="2">
+      <c r="U9" s="1">
         <v>3104</v>
       </c>
-      <c r="V9" s="2">
+      <c r="V9" s="1">
         <v>14</v>
       </c>
-      <c r="W9" s="2">
+      <c r="W9" s="1">
         <v>6</v>
       </c>
-      <c r="X9" s="2">
+      <c r="X9" s="1">
         <v>920304</v>
       </c>
       <c r="Z9">
@@ -1342,7 +1352,7 @@
         <v>1254960</v>
       </c>
     </row>
-    <row r="10" spans="5:80" x14ac:dyDescent="0.35">
+    <row r="10" spans="5:80" x14ac:dyDescent="0.25">
       <c r="E10">
         <v>182</v>
       </c>
@@ -1379,22 +1389,22 @@
       <c r="Q10">
         <v>501984</v>
       </c>
-      <c r="S10" s="2">
+      <c r="S10" s="1">
         <v>3012</v>
       </c>
-      <c r="T10" s="2">
+      <c r="T10" s="1">
         <v>511</v>
       </c>
-      <c r="U10" s="2">
+      <c r="U10" s="1">
         <v>2485</v>
       </c>
-      <c r="V10" s="2">
+      <c r="V10" s="1">
         <v>12</v>
       </c>
-      <c r="W10" s="2">
+      <c r="W10" s="1">
         <v>4</v>
       </c>
-      <c r="X10" s="2">
+      <c r="X10" s="1">
         <v>1003968</v>
       </c>
       <c r="Z10">
@@ -1542,7 +1552,7 @@
         <v>1254960</v>
       </c>
     </row>
-    <row r="11" spans="5:80" x14ac:dyDescent="0.35">
+    <row r="11" spans="5:80" x14ac:dyDescent="0.25">
       <c r="E11">
         <v>231</v>
       </c>
@@ -1579,22 +1589,22 @@
       <c r="Q11">
         <v>504972</v>
       </c>
-      <c r="S11" s="2">
+      <c r="S11" s="1">
         <v>2877</v>
       </c>
-      <c r="T11" s="2">
+      <c r="T11" s="1">
         <v>490</v>
       </c>
-      <c r="U11" s="2">
+      <c r="U11" s="1">
         <v>1913</v>
       </c>
-      <c r="V11" s="2">
+      <c r="V11" s="1">
         <v>474</v>
       </c>
-      <c r="W11" s="2">
+      <c r="W11" s="1">
         <v>0</v>
       </c>
-      <c r="X11" s="2">
+      <c r="X11" s="1">
         <v>1009944</v>
       </c>
       <c r="Z11">
@@ -1742,7 +1752,7 @@
         <v>1262430</v>
       </c>
     </row>
-    <row r="12" spans="5:80" x14ac:dyDescent="0.35">
+    <row r="12" spans="5:80" x14ac:dyDescent="0.25">
       <c r="E12">
         <v>196</v>
       </c>
@@ -1779,22 +1789,22 @@
       <c r="Q12">
         <v>415800</v>
       </c>
-      <c r="S12" s="2">
+      <c r="S12" s="1">
         <v>3880</v>
       </c>
-      <c r="T12" s="2">
+      <c r="T12" s="1">
         <v>349</v>
       </c>
-      <c r="U12" s="2">
+      <c r="U12" s="1">
         <v>3441</v>
       </c>
-      <c r="V12" s="2">
+      <c r="V12" s="1">
         <v>27</v>
       </c>
-      <c r="W12" s="2">
+      <c r="W12" s="1">
         <v>63</v>
       </c>
-      <c r="X12" s="2">
+      <c r="X12" s="1">
         <v>997920</v>
       </c>
       <c r="Z12">
@@ -1942,7 +1952,7 @@
         <v>1247400</v>
       </c>
     </row>
-    <row r="13" spans="5:80" x14ac:dyDescent="0.35">
+    <row r="13" spans="5:80" x14ac:dyDescent="0.25">
       <c r="E13">
         <v>224</v>
       </c>
@@ -1979,22 +1989,22 @@
       <c r="Q13">
         <v>505008</v>
       </c>
-      <c r="S13" s="2">
+      <c r="S13" s="1">
         <v>4020</v>
       </c>
-      <c r="T13" s="2">
+      <c r="T13" s="1">
         <v>357</v>
       </c>
-      <c r="U13" s="2">
+      <c r="U13" s="1">
         <v>3537</v>
       </c>
-      <c r="V13" s="2">
+      <c r="V13" s="1">
         <v>46</v>
       </c>
-      <c r="W13" s="2">
+      <c r="W13" s="1">
         <v>79</v>
       </c>
-      <c r="X13" s="2">
+      <c r="X13" s="1">
         <v>1010016</v>
       </c>
       <c r="Z13">
@@ -2142,7 +2152,7 @@
         <v>1262520</v>
       </c>
     </row>
-    <row r="14" spans="5:80" x14ac:dyDescent="0.35">
+    <row r="14" spans="5:80" x14ac:dyDescent="0.25">
       <c r="E14">
         <v>253</v>
       </c>
@@ -2179,22 +2189,22 @@
       <c r="Q14">
         <v>508014</v>
       </c>
-      <c r="S14" s="2">
+      <c r="S14" s="1">
         <v>3466</v>
       </c>
-      <c r="T14" s="2">
+      <c r="T14" s="1">
         <v>382</v>
       </c>
-      <c r="U14" s="2">
+      <c r="U14" s="1">
         <v>3074</v>
       </c>
-      <c r="V14" s="2">
+      <c r="V14" s="1">
         <v>5</v>
       </c>
-      <c r="W14" s="2">
+      <c r="W14" s="1">
         <v>5</v>
       </c>
-      <c r="X14" s="2">
+      <c r="X14" s="1">
         <v>1016028</v>
       </c>
       <c r="Z14">
@@ -2342,7 +2352,7 @@
         <v>1270035</v>
       </c>
     </row>
-    <row r="15" spans="5:80" x14ac:dyDescent="0.35">
+    <row r="15" spans="5:80" x14ac:dyDescent="0.25">
       <c r="E15">
         <v>141</v>
       </c>
@@ -2379,22 +2389,22 @@
       <c r="Q15">
         <v>511056</v>
       </c>
-      <c r="S15" s="2">
+      <c r="S15" s="1">
         <v>3920</v>
       </c>
-      <c r="T15" s="2">
+      <c r="T15" s="1">
         <v>335</v>
       </c>
-      <c r="U15" s="2">
+      <c r="U15" s="1">
         <v>3559</v>
       </c>
-      <c r="V15" s="2">
+      <c r="V15" s="1">
         <v>25</v>
       </c>
-      <c r="W15" s="2">
+      <c r="W15" s="1">
         <v>1</v>
       </c>
-      <c r="X15" s="2">
+      <c r="X15" s="1">
         <v>1022112</v>
       </c>
       <c r="Z15">
@@ -2542,7 +2552,7 @@
         <v>1277640</v>
       </c>
     </row>
-    <row r="16" spans="5:80" x14ac:dyDescent="0.35">
+    <row r="16" spans="5:80" x14ac:dyDescent="0.25">
       <c r="E16">
         <v>238</v>
       </c>
@@ -2579,22 +2589,22 @@
       <c r="Q16">
         <v>511056</v>
       </c>
-      <c r="S16" s="2">
+      <c r="S16" s="1">
         <v>4296</v>
       </c>
-      <c r="T16" s="2">
+      <c r="T16" s="1">
         <v>337</v>
       </c>
-      <c r="U16" s="2">
+      <c r="U16" s="1">
         <v>3517</v>
       </c>
-      <c r="V16" s="2">
+      <c r="V16" s="1">
         <v>142</v>
       </c>
-      <c r="W16" s="2">
+      <c r="W16" s="1">
         <v>300</v>
       </c>
-      <c r="X16" s="2">
+      <c r="X16" s="1">
         <v>936936</v>
       </c>
       <c r="Z16">
@@ -2742,273 +2752,273 @@
         <v>1277640</v>
       </c>
     </row>
-    <row r="18" spans="5:80" x14ac:dyDescent="0.35">
+    <row r="18" spans="5:80" x14ac:dyDescent="0.25">
       <c r="E18">
-        <f xml:space="preserve"> AVERAGE(E7:E16)</f>
+        <f t="shared" ref="E18:J18" si="0" xml:space="preserve"> AVERAGE(E7:E16)</f>
         <v>241.8</v>
       </c>
       <c r="F18">
-        <f xml:space="preserve"> AVERAGE(F7:F16)</f>
+        <f t="shared" si="0"/>
         <v>39.200000000000003</v>
       </c>
       <c r="G18">
-        <f xml:space="preserve"> AVERAGE(G7:G16)</f>
+        <f t="shared" si="0"/>
         <v>187.6</v>
       </c>
       <c r="H18">
-        <f xml:space="preserve"> AVERAGE(H7:H16)</f>
+        <f t="shared" si="0"/>
         <v>6.1</v>
       </c>
       <c r="I18">
-        <f xml:space="preserve"> AVERAGE(I7:I16)</f>
+        <f t="shared" si="0"/>
         <v>8.9</v>
       </c>
       <c r="J18">
-        <f xml:space="preserve"> AVERAGE(J7:J16)</f>
+        <f t="shared" si="0"/>
         <v>84267.9</v>
       </c>
       <c r="L18">
-        <f xml:space="preserve"> AVERAGE(L7:L16)</f>
+        <f t="shared" ref="L18:Q18" si="1" xml:space="preserve"> AVERAGE(L7:L16)</f>
         <v>1928.4</v>
       </c>
       <c r="M18">
-        <f xml:space="preserve"> AVERAGE(M7:M16)</f>
+        <f t="shared" si="1"/>
         <v>255.9</v>
       </c>
       <c r="N18">
-        <f xml:space="preserve"> AVERAGE(N7:N16)</f>
+        <f t="shared" si="1"/>
         <v>1530.3</v>
       </c>
       <c r="O18">
-        <f xml:space="preserve"> AVERAGE(O7:O16)</f>
+        <f t="shared" si="1"/>
         <v>47.4</v>
       </c>
       <c r="P18">
-        <f xml:space="preserve"> AVERAGE(P7:P16)</f>
+        <f t="shared" si="1"/>
         <v>94.8</v>
       </c>
       <c r="Q18">
-        <f xml:space="preserve"> AVERAGE(Q7:Q16)</f>
+        <f t="shared" si="1"/>
         <v>488925</v>
       </c>
       <c r="S18">
-        <f xml:space="preserve"> AVERAGE(S7:S16)</f>
+        <f t="shared" ref="S18:X18" si="2" xml:space="preserve"> AVERAGE(S7:S16)</f>
         <v>3472</v>
       </c>
       <c r="T18">
-        <f xml:space="preserve"> AVERAGE(T7:T16)</f>
+        <f t="shared" si="2"/>
         <v>474.5</v>
       </c>
       <c r="U18">
-        <f xml:space="preserve"> AVERAGE(U7:U16)</f>
+        <f t="shared" si="2"/>
         <v>2856.3</v>
       </c>
       <c r="V18">
-        <f xml:space="preserve"> AVERAGE(V7:V16)</f>
+        <f t="shared" si="2"/>
         <v>79.099999999999994</v>
       </c>
       <c r="W18">
-        <f xml:space="preserve"> AVERAGE(W7:W16)</f>
+        <f t="shared" si="2"/>
         <v>62</v>
       </c>
       <c r="X18">
-        <f xml:space="preserve"> AVERAGE(X7:X16)</f>
+        <f t="shared" si="2"/>
         <v>968929.2</v>
       </c>
       <c r="Z18">
-        <f xml:space="preserve"> AVERAGE(Z7:Z16)</f>
+        <f t="shared" ref="Z18:AE18" si="3" xml:space="preserve"> AVERAGE(Z7:Z16)</f>
         <v>3876.1</v>
       </c>
       <c r="AA18">
-        <f xml:space="preserve"> AVERAGE(AA7:AA16)</f>
+        <f t="shared" si="3"/>
         <v>613.20000000000005</v>
       </c>
       <c r="AB18">
-        <f xml:space="preserve"> AVERAGE(AB7:AB16)</f>
+        <f t="shared" si="3"/>
         <v>3099.2</v>
       </c>
       <c r="AC18">
-        <f xml:space="preserve"> AVERAGE(AC7:AC16)</f>
+        <f t="shared" si="3"/>
         <v>92.5</v>
       </c>
       <c r="AD18">
-        <f xml:space="preserve"> AVERAGE(AD7:AD16)</f>
+        <f t="shared" si="3"/>
         <v>71.099999999999994</v>
       </c>
       <c r="AE18">
-        <f xml:space="preserve"> AVERAGE(AE7:AE16)</f>
+        <f t="shared" si="3"/>
         <v>1230351.6000000001</v>
       </c>
       <c r="AG18">
-        <f xml:space="preserve"> AVERAGE(AG7:AG16)</f>
+        <f t="shared" ref="AG18:AL18" si="4" xml:space="preserve"> AVERAGE(AG7:AG16)</f>
         <v>4274.1000000000004</v>
       </c>
       <c r="AH18">
-        <f xml:space="preserve"> AVERAGE(AH7:AH16)</f>
+        <f t="shared" si="4"/>
         <v>609.9</v>
       </c>
       <c r="AI18">
-        <f xml:space="preserve"> AVERAGE(AI7:AI16)</f>
+        <f t="shared" si="4"/>
         <v>3331.9</v>
       </c>
       <c r="AJ18">
-        <f xml:space="preserve"> AVERAGE(AJ7:AJ16)</f>
+        <f t="shared" si="4"/>
         <v>67</v>
       </c>
       <c r="AK18">
-        <f xml:space="preserve"> AVERAGE(AK7:AK16)</f>
+        <f t="shared" si="4"/>
         <v>265.3</v>
       </c>
       <c r="AL18">
-        <f xml:space="preserve"> AVERAGE(AL7:AL16)</f>
+        <f t="shared" si="4"/>
         <v>1247185.2</v>
       </c>
       <c r="AN18">
-        <f xml:space="preserve"> AVERAGE(AN7:AN16)</f>
+        <f t="shared" ref="AN18:AS18" si="5" xml:space="preserve"> AVERAGE(AN7:AN16)</f>
         <v>3931.5</v>
       </c>
       <c r="AO18">
-        <f xml:space="preserve"> AVERAGE(AO7:AO16)</f>
+        <f t="shared" si="5"/>
         <v>653.4</v>
       </c>
       <c r="AP18">
-        <f xml:space="preserve"> AVERAGE(AP7:AP16)</f>
+        <f t="shared" si="5"/>
         <v>3068.4</v>
       </c>
       <c r="AQ18">
-        <f xml:space="preserve"> AVERAGE(AQ7:AQ16)</f>
+        <f t="shared" si="5"/>
         <v>62.9</v>
       </c>
       <c r="AR18">
-        <f xml:space="preserve"> AVERAGE(AR7:AR16)</f>
+        <f t="shared" si="5"/>
         <v>146.80000000000001</v>
       </c>
       <c r="AS18">
-        <f xml:space="preserve"> AVERAGE(AS7:AS16)</f>
+        <f t="shared" si="5"/>
         <v>1247185.2</v>
       </c>
       <c r="AU18">
-        <f xml:space="preserve"> AVERAGE(AU7:AU16)</f>
+        <f t="shared" ref="AU18:AZ18" si="6" xml:space="preserve"> AVERAGE(AU7:AU16)</f>
         <v>3883.8</v>
       </c>
       <c r="AV18">
-        <f xml:space="preserve"> AVERAGE(AV7:AV16)</f>
+        <f t="shared" si="6"/>
         <v>652.70000000000005</v>
       </c>
       <c r="AW18">
-        <f xml:space="preserve"> AVERAGE(AW7:AW16)</f>
+        <f t="shared" si="6"/>
         <v>3114.2</v>
       </c>
       <c r="AX18">
-        <f xml:space="preserve"> AVERAGE(AX7:AX16)</f>
+        <f t="shared" si="6"/>
         <v>37</v>
       </c>
       <c r="AY18">
-        <f xml:space="preserve"> AVERAGE(AY7:AY16)</f>
+        <f t="shared" si="6"/>
         <v>79.900000000000006</v>
       </c>
       <c r="AZ18">
-        <f xml:space="preserve"> AVERAGE(AZ7:AZ16)</f>
+        <f t="shared" si="6"/>
         <v>1255652.1000000001</v>
       </c>
       <c r="BB18">
-        <f xml:space="preserve"> AVERAGE(BB7:BB16)</f>
+        <f t="shared" ref="BB18:BG18" si="7" xml:space="preserve"> AVERAGE(BB7:BB16)</f>
         <v>3945.2</v>
       </c>
       <c r="BC18">
-        <f xml:space="preserve"> AVERAGE(BC7:BC16)</f>
+        <f t="shared" si="7"/>
         <v>585.20000000000005</v>
       </c>
       <c r="BD18">
-        <f xml:space="preserve"> AVERAGE(BD7:BD16)</f>
+        <f t="shared" si="7"/>
         <v>3238.4</v>
       </c>
       <c r="BE18">
-        <f xml:space="preserve"> AVERAGE(BE7:BE16)</f>
+        <f t="shared" si="7"/>
         <v>43.8</v>
       </c>
       <c r="BF18">
-        <f xml:space="preserve"> AVERAGE(BF7:BF16)</f>
+        <f t="shared" si="7"/>
         <v>77.8</v>
       </c>
       <c r="BG18">
-        <f xml:space="preserve"> AVERAGE(BG7:BG16)</f>
+        <f t="shared" si="7"/>
         <v>1264018.5</v>
       </c>
       <c r="BI18">
-        <f xml:space="preserve"> AVERAGE(BI7:BI16)</f>
+        <f t="shared" ref="BI18:BN18" si="8" xml:space="preserve"> AVERAGE(BI7:BI16)</f>
         <v>3895.5</v>
       </c>
       <c r="BJ18">
-        <f xml:space="preserve"> AVERAGE(BJ7:BJ16)</f>
+        <f t="shared" si="8"/>
         <v>590.29999999999995</v>
       </c>
       <c r="BK18">
-        <f xml:space="preserve"> AVERAGE(BK7:BK16)</f>
+        <f t="shared" si="8"/>
         <v>3052.5</v>
       </c>
       <c r="BL18">
-        <f xml:space="preserve"> AVERAGE(BL7:BL16)</f>
+        <f t="shared" si="8"/>
         <v>52.6</v>
       </c>
       <c r="BM18">
-        <f xml:space="preserve"> AVERAGE(BM7:BM16)</f>
+        <f t="shared" si="8"/>
         <v>200.1</v>
       </c>
       <c r="BN18">
-        <f xml:space="preserve"> AVERAGE(BN7:BN16)</f>
+        <f t="shared" si="8"/>
         <v>1264018.5</v>
       </c>
       <c r="BP18">
-        <f xml:space="preserve"> AVERAGE(BP7:BP16)</f>
+        <f t="shared" ref="BP18:BU18" si="9" xml:space="preserve"> AVERAGE(BP7:BP16)</f>
         <v>3985.1</v>
       </c>
       <c r="BQ18">
-        <f xml:space="preserve"> AVERAGE(BQ7:BQ16)</f>
+        <f t="shared" si="9"/>
         <v>599.20000000000005</v>
       </c>
       <c r="BR18">
-        <f xml:space="preserve"> AVERAGE(BR7:BR16)</f>
+        <f t="shared" si="9"/>
         <v>3351.7</v>
       </c>
       <c r="BS18">
-        <f xml:space="preserve"> AVERAGE(BS7:BS16)</f>
+        <f t="shared" si="9"/>
         <v>13.5</v>
       </c>
       <c r="BT18">
-        <f xml:space="preserve"> AVERAGE(BT7:BT16)</f>
+        <f t="shared" si="9"/>
         <v>20.7</v>
       </c>
       <c r="BU18">
-        <f xml:space="preserve"> AVERAGE(BU7:BU16)</f>
+        <f t="shared" si="9"/>
         <v>1264018.5</v>
       </c>
       <c r="BW18">
-        <f xml:space="preserve"> AVERAGE(BW7:BW16)</f>
+        <f t="shared" ref="BW18:CB18" si="10" xml:space="preserve"> AVERAGE(BW7:BW16)</f>
         <v>4140.6000000000004</v>
       </c>
       <c r="BX18">
-        <f xml:space="preserve"> AVERAGE(BX7:BX16)</f>
+        <f t="shared" si="10"/>
         <v>560.29999999999995</v>
       </c>
       <c r="BY18">
-        <f xml:space="preserve"> AVERAGE(BY7:BY16)</f>
+        <f t="shared" si="10"/>
         <v>3560</v>
       </c>
       <c r="BZ18">
-        <f xml:space="preserve"> AVERAGE(BZ7:BZ16)</f>
+        <f t="shared" si="10"/>
         <v>9.1999999999999993</v>
       </c>
       <c r="CA18">
-        <f xml:space="preserve"> AVERAGE(CA7:CA16)</f>
+        <f t="shared" si="10"/>
         <v>11.1</v>
       </c>
       <c r="CB18">
-        <f xml:space="preserve"> AVERAGE(CB7:CB16)</f>
+        <f t="shared" si="10"/>
         <v>1264018.5</v>
       </c>
     </row>
-    <row r="19" spans="5:80" x14ac:dyDescent="0.35">
+    <row r="19" spans="5:80" x14ac:dyDescent="0.25">
       <c r="I19">
         <f xml:space="preserve"> SUM(H18:I18)</f>
         <v>15</v>
@@ -3054,17 +3064,17 @@
         <v>20.299999999999997</v>
       </c>
     </row>
-    <row r="26" spans="5:80" x14ac:dyDescent="0.35">
-      <c r="E26" s="1" t="s">
+    <row r="26" spans="5:80" x14ac:dyDescent="0.25">
+      <c r="E26" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
     </row>
-    <row r="28" spans="5:80" x14ac:dyDescent="0.35">
+    <row r="28" spans="5:80" x14ac:dyDescent="0.25">
       <c r="E28" t="s">
         <v>1</v>
       </c>
@@ -3084,7 +3094,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="5:80" x14ac:dyDescent="0.35">
+    <row r="29" spans="5:80" x14ac:dyDescent="0.25">
       <c r="E29" t="s">
         <v>2</v>
       </c>
@@ -3194,7 +3204,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="5:80" x14ac:dyDescent="0.35">
+    <row r="30" spans="5:80" x14ac:dyDescent="0.25">
       <c r="E30">
         <v>824</v>
       </c>
@@ -3304,7 +3314,7 @@
         <v>613536</v>
       </c>
     </row>
-    <row r="31" spans="5:80" x14ac:dyDescent="0.35">
+    <row r="31" spans="5:80" x14ac:dyDescent="0.25">
       <c r="E31">
         <v>695</v>
       </c>
@@ -3414,7 +3424,7 @@
         <v>567840</v>
       </c>
     </row>
-    <row r="32" spans="5:80" x14ac:dyDescent="0.35">
+    <row r="32" spans="5:80" x14ac:dyDescent="0.25">
       <c r="E32">
         <v>717</v>
       </c>
@@ -3524,7 +3534,7 @@
         <v>613536</v>
       </c>
     </row>
-    <row r="33" spans="5:45" x14ac:dyDescent="0.35">
+    <row r="33" spans="5:45" x14ac:dyDescent="0.25">
       <c r="E33">
         <v>1410</v>
       </c>
@@ -3634,7 +3644,7 @@
         <v>669312</v>
       </c>
     </row>
-    <row r="34" spans="5:45" x14ac:dyDescent="0.35">
+    <row r="34" spans="5:45" x14ac:dyDescent="0.25">
       <c r="E34">
         <v>1101</v>
       </c>
@@ -3744,7 +3754,7 @@
         <v>673296</v>
       </c>
     </row>
-    <row r="35" spans="5:45" x14ac:dyDescent="0.35">
+    <row r="35" spans="5:45" x14ac:dyDescent="0.25">
       <c r="E35">
         <v>1219</v>
       </c>
@@ -3854,7 +3864,7 @@
         <v>665280</v>
       </c>
     </row>
-    <row r="36" spans="5:45" x14ac:dyDescent="0.35">
+    <row r="36" spans="5:45" x14ac:dyDescent="0.25">
       <c r="E36">
         <v>1345</v>
       </c>
@@ -3964,7 +3974,7 @@
         <v>673344</v>
       </c>
     </row>
-    <row r="37" spans="5:45" x14ac:dyDescent="0.35">
+    <row r="37" spans="5:45" x14ac:dyDescent="0.25">
       <c r="E37">
         <v>1423</v>
       </c>
@@ -4074,7 +4084,7 @@
         <v>677352</v>
       </c>
     </row>
-    <row r="38" spans="5:45" x14ac:dyDescent="0.35">
+    <row r="38" spans="5:45" x14ac:dyDescent="0.25">
       <c r="E38">
         <v>1387</v>
       </c>
@@ -4184,7 +4194,7 @@
         <v>681408</v>
       </c>
     </row>
-    <row r="39" spans="5:45" x14ac:dyDescent="0.35">
+    <row r="39" spans="5:45" x14ac:dyDescent="0.25">
       <c r="E39">
         <v>1157</v>
       </c>
@@ -4294,153 +4304,153 @@
         <v>624624</v>
       </c>
     </row>
-    <row r="41" spans="5:45" x14ac:dyDescent="0.35">
+    <row r="41" spans="5:45" x14ac:dyDescent="0.25">
       <c r="E41">
-        <f xml:space="preserve"> AVERAGE(E30:E39)</f>
+        <f t="shared" ref="E41:J41" si="11" xml:space="preserve"> AVERAGE(E30:E39)</f>
         <v>1127.8</v>
       </c>
       <c r="F41">
-        <f xml:space="preserve"> AVERAGE(F30:F39)</f>
+        <f t="shared" si="11"/>
         <v>178.6</v>
       </c>
       <c r="G41">
-        <f xml:space="preserve"> AVERAGE(G30:G39)</f>
+        <f t="shared" si="11"/>
         <v>879.6</v>
       </c>
       <c r="H41">
-        <f xml:space="preserve"> AVERAGE(H30:H39)</f>
+        <f t="shared" si="11"/>
         <v>33.9</v>
       </c>
       <c r="I41">
-        <f xml:space="preserve"> AVERAGE(I30:I39)</f>
+        <f t="shared" si="11"/>
         <v>35.700000000000003</v>
       </c>
       <c r="J41">
-        <f xml:space="preserve"> AVERAGE(J30:J39)</f>
+        <f t="shared" si="11"/>
         <v>322976.40000000002</v>
       </c>
       <c r="L41">
-        <f xml:space="preserve"> AVERAGE(L30:L39)</f>
+        <f t="shared" ref="L41:Q41" si="12" xml:space="preserve"> AVERAGE(L30:L39)</f>
         <v>3223</v>
       </c>
       <c r="M41">
-        <f xml:space="preserve"> AVERAGE(M30:M39)</f>
+        <f t="shared" si="12"/>
         <v>496.7</v>
       </c>
       <c r="N41">
-        <f xml:space="preserve"> AVERAGE(N30:N39)</f>
+        <f t="shared" si="12"/>
         <v>2583.1999999999998</v>
       </c>
       <c r="O41">
-        <f xml:space="preserve"> AVERAGE(O30:O39)</f>
+        <f t="shared" si="12"/>
         <v>80.2</v>
       </c>
       <c r="P41">
-        <f xml:space="preserve"> AVERAGE(P30:P39)</f>
+        <f t="shared" si="12"/>
         <v>62.9</v>
       </c>
       <c r="Q41">
-        <f xml:space="preserve"> AVERAGE(Q30:Q39)</f>
+        <f t="shared" si="12"/>
         <v>968929.2</v>
       </c>
       <c r="S41">
-        <f xml:space="preserve"> AVERAGE(S30:S39)</f>
+        <f t="shared" ref="S41:X41" si="13" xml:space="preserve"> AVERAGE(S30:S39)</f>
         <v>3652.4</v>
       </c>
       <c r="T41">
-        <f xml:space="preserve"> AVERAGE(T30:T39)</f>
+        <f t="shared" si="13"/>
         <v>493.4</v>
       </c>
       <c r="U41">
-        <f xml:space="preserve"> AVERAGE(U30:U39)</f>
+        <f t="shared" si="13"/>
         <v>3014.4</v>
       </c>
       <c r="V41">
-        <f xml:space="preserve"> AVERAGE(V30:V39)</f>
+        <f t="shared" si="13"/>
         <v>80.099999999999994</v>
       </c>
       <c r="W41">
-        <f xml:space="preserve"> AVERAGE(W30:W39)</f>
+        <f t="shared" si="13"/>
         <v>64.5</v>
       </c>
       <c r="X41">
-        <f xml:space="preserve"> AVERAGE(X30:X39)</f>
+        <f t="shared" si="13"/>
         <v>968929.2</v>
       </c>
       <c r="Z41">
-        <f xml:space="preserve"> AVERAGE(Z30:Z39)</f>
+        <f t="shared" ref="Z41:AE41" si="14" xml:space="preserve"> AVERAGE(Z30:Z39)</f>
         <v>3375.9</v>
       </c>
       <c r="AA41">
-        <f xml:space="preserve"> AVERAGE(AA30:AA39)</f>
+        <f t="shared" si="14"/>
         <v>489.8</v>
       </c>
       <c r="AB41">
-        <f xml:space="preserve"> AVERAGE(AB30:AB39)</f>
+        <f t="shared" si="14"/>
         <v>2746.9</v>
       </c>
       <c r="AC41">
-        <f xml:space="preserve"> AVERAGE(AC30:AC39)</f>
+        <f t="shared" si="14"/>
         <v>76.8</v>
       </c>
       <c r="AD41">
-        <f xml:space="preserve"> AVERAGE(AD30:AD39)</f>
+        <f t="shared" si="14"/>
         <v>62.4</v>
       </c>
       <c r="AE41">
-        <f xml:space="preserve"> AVERAGE(AE30:AE39)</f>
+        <f t="shared" si="14"/>
         <v>968929.2</v>
       </c>
       <c r="AG41">
-        <f xml:space="preserve"> AVERAGE(AG30:AG39)</f>
+        <f t="shared" ref="AG41:AL41" si="15" xml:space="preserve"> AVERAGE(AG30:AG39)</f>
         <v>3317.8</v>
       </c>
       <c r="AH41">
-        <f xml:space="preserve"> AVERAGE(AH30:AH39)</f>
+        <f t="shared" si="15"/>
         <v>498.6</v>
       </c>
       <c r="AI41">
-        <f xml:space="preserve"> AVERAGE(AI30:AI39)</f>
+        <f t="shared" si="15"/>
         <v>2640.1</v>
       </c>
       <c r="AJ41">
-        <f xml:space="preserve"> AVERAGE(AJ30:AJ39)</f>
+        <f t="shared" si="15"/>
         <v>69</v>
       </c>
       <c r="AK41">
-        <f xml:space="preserve"> AVERAGE(AK30:AK39)</f>
+        <f t="shared" si="15"/>
         <v>110.1</v>
       </c>
       <c r="AL41">
-        <f xml:space="preserve"> AVERAGE(AL30:AL39)</f>
+        <f t="shared" si="15"/>
         <v>968929.2</v>
       </c>
       <c r="AN41">
-        <f xml:space="preserve"> AVERAGE(AN30:AN39)</f>
+        <f t="shared" ref="AN41:AS41" si="16" xml:space="preserve"> AVERAGE(AN30:AN39)</f>
         <v>2367.3000000000002</v>
       </c>
       <c r="AO41">
-        <f xml:space="preserve"> AVERAGE(AO30:AO39)</f>
+        <f t="shared" si="16"/>
         <v>320.89999999999998</v>
       </c>
       <c r="AP41">
-        <f xml:space="preserve"> AVERAGE(AP30:AP39)</f>
+        <f t="shared" si="16"/>
         <v>1952.7</v>
       </c>
       <c r="AQ41">
-        <f xml:space="preserve"> AVERAGE(AQ30:AQ39)</f>
+        <f t="shared" si="16"/>
         <v>38.4</v>
       </c>
       <c r="AR41">
-        <f xml:space="preserve"> AVERAGE(AR30:AR39)</f>
+        <f t="shared" si="16"/>
         <v>55.3</v>
       </c>
       <c r="AS41">
-        <f xml:space="preserve"> AVERAGE(AS30:AS39)</f>
+        <f t="shared" si="16"/>
         <v>645952.80000000005</v>
       </c>
     </row>
-    <row r="42" spans="5:45" x14ac:dyDescent="0.35">
+    <row r="42" spans="5:45" x14ac:dyDescent="0.25">
       <c r="I42">
         <f xml:space="preserve"> SUM(H41:I41)</f>
         <v>69.599999999999994</v>
@@ -4466,31 +4476,31 @@
         <v>93.699999999999989</v>
       </c>
     </row>
-    <row r="48" spans="5:45" x14ac:dyDescent="0.35">
-      <c r="E48" s="1" t="s">
+    <row r="48" spans="5:45" x14ac:dyDescent="0.25">
+      <c r="E48" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
-      <c r="H48" s="1"/>
-      <c r="I48" s="1"/>
-      <c r="J48" s="1"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+      <c r="J48" s="2"/>
     </row>
-    <row r="50" spans="5:45" x14ac:dyDescent="0.35">
+    <row r="50" spans="5:45" x14ac:dyDescent="0.25">
       <c r="E50">
         <v>0</v>
       </c>
       <c r="L50">
         <v>20</v>
       </c>
-      <c r="S50" s="2">
+      <c r="S50" s="1">
         <v>40</v>
       </c>
-      <c r="T50" s="2"/>
-      <c r="U50" s="2"/>
-      <c r="V50" s="2"/>
-      <c r="W50" s="2"/>
-      <c r="X50" s="2"/>
+      <c r="T50" s="1"/>
+      <c r="U50" s="1"/>
+      <c r="V50" s="1"/>
+      <c r="W50" s="1"/>
+      <c r="X50" s="1"/>
       <c r="Z50">
         <v>60</v>
       </c>
@@ -4501,7 +4511,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="51" spans="5:45" x14ac:dyDescent="0.35">
+    <row r="51" spans="5:45" x14ac:dyDescent="0.25">
       <c r="E51" t="s">
         <v>2</v>
       </c>
@@ -4538,22 +4548,22 @@
       <c r="Q51" t="s">
         <v>7</v>
       </c>
-      <c r="S51" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="T51" s="2" t="s">
+      <c r="S51" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="T51" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="U51" s="2" t="s">
+      <c r="U51" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="V51" s="2" t="s">
+      <c r="V51" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="W51" s="2" t="s">
+      <c r="W51" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="X51" s="2" t="s">
+      <c r="X51" s="1" t="s">
         <v>7</v>
       </c>
       <c r="Z51" t="s">
@@ -4611,7 +4621,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="52" spans="5:45" x14ac:dyDescent="0.35">
+    <row r="52" spans="5:45" x14ac:dyDescent="0.25">
       <c r="E52">
         <v>4184</v>
       </c>
@@ -4648,12 +4658,12 @@
       <c r="Q52">
         <v>1232064</v>
       </c>
-      <c r="S52" s="2"/>
-      <c r="T52" s="2"/>
-      <c r="U52" s="2"/>
-      <c r="V52" s="2"/>
-      <c r="W52" s="2"/>
-      <c r="X52" s="2"/>
+      <c r="S52" s="1"/>
+      <c r="T52" s="1"/>
+      <c r="U52" s="1"/>
+      <c r="V52" s="1"/>
+      <c r="W52" s="1"/>
+      <c r="X52" s="1"/>
       <c r="Z52">
         <v>2828</v>
       </c>
@@ -4709,7 +4719,7 @@
         <v>412020</v>
       </c>
     </row>
-    <row r="53" spans="5:45" x14ac:dyDescent="0.35">
+    <row r="53" spans="5:45" x14ac:dyDescent="0.25">
       <c r="E53">
         <v>4166</v>
       </c>
@@ -4746,12 +4756,12 @@
       <c r="Q53">
         <v>1258848</v>
       </c>
-      <c r="S53" s="2"/>
-      <c r="T53" s="2"/>
-      <c r="U53" s="2"/>
-      <c r="V53" s="2"/>
-      <c r="W53" s="2"/>
-      <c r="X53" s="2"/>
+      <c r="S53" s="1"/>
+      <c r="T53" s="1"/>
+      <c r="U53" s="1"/>
+      <c r="V53" s="1"/>
+      <c r="W53" s="1"/>
+      <c r="X53" s="1"/>
       <c r="Z53">
         <v>3216</v>
       </c>
@@ -4807,7 +4817,7 @@
         <v>337080</v>
       </c>
     </row>
-    <row r="54" spans="5:45" x14ac:dyDescent="0.35">
+    <row r="54" spans="5:45" x14ac:dyDescent="0.25">
       <c r="E54">
         <v>5271</v>
       </c>
@@ -4844,12 +4854,12 @@
       <c r="Q54">
         <v>1238760</v>
       </c>
-      <c r="S54" s="2"/>
-      <c r="T54" s="2"/>
-      <c r="U54" s="2"/>
-      <c r="V54" s="2"/>
-      <c r="W54" s="2"/>
-      <c r="X54" s="2"/>
+      <c r="S54" s="1"/>
+      <c r="T54" s="1"/>
+      <c r="U54" s="1"/>
+      <c r="V54" s="1"/>
+      <c r="W54" s="1"/>
+      <c r="X54" s="1"/>
       <c r="Z54">
         <v>2844</v>
       </c>
@@ -4905,7 +4915,7 @@
         <v>392073</v>
       </c>
     </row>
-    <row r="55" spans="5:45" x14ac:dyDescent="0.35">
+    <row r="55" spans="5:45" x14ac:dyDescent="0.25">
       <c r="E55">
         <v>4095</v>
       </c>
@@ -4942,12 +4952,12 @@
       <c r="Q55">
         <v>1135464</v>
       </c>
-      <c r="S55" s="2"/>
-      <c r="T55" s="2"/>
-      <c r="U55" s="2"/>
-      <c r="V55" s="2"/>
-      <c r="W55" s="2"/>
-      <c r="X55" s="2"/>
+      <c r="S55" s="1"/>
+      <c r="T55" s="1"/>
+      <c r="U55" s="1"/>
+      <c r="V55" s="1"/>
+      <c r="W55" s="1"/>
+      <c r="X55" s="1"/>
       <c r="Z55">
         <v>4280</v>
       </c>
@@ -5003,7 +5013,7 @@
         <v>416016</v>
       </c>
     </row>
-    <row r="56" spans="5:45" x14ac:dyDescent="0.35">
+    <row r="56" spans="5:45" x14ac:dyDescent="0.25">
       <c r="E56">
         <v>2683</v>
       </c>
@@ -5040,12 +5050,12 @@
       <c r="Q56">
         <v>1238688</v>
       </c>
-      <c r="S56" s="2"/>
-      <c r="T56" s="2"/>
-      <c r="U56" s="2"/>
-      <c r="V56" s="2"/>
-      <c r="W56" s="2"/>
-      <c r="X56" s="2"/>
+      <c r="S56" s="1"/>
+      <c r="T56" s="1"/>
+      <c r="U56" s="1"/>
+      <c r="V56" s="1"/>
+      <c r="W56" s="1"/>
+      <c r="X56" s="1"/>
       <c r="Z56">
         <v>3504</v>
       </c>
@@ -5101,7 +5111,7 @@
         <v>374220</v>
       </c>
     </row>
-    <row r="57" spans="5:45" x14ac:dyDescent="0.35">
+    <row r="57" spans="5:45" x14ac:dyDescent="0.25">
       <c r="E57">
         <v>5409</v>
       </c>
@@ -5138,12 +5148,12 @@
       <c r="Q57">
         <v>1238760</v>
       </c>
-      <c r="S57" s="2"/>
-      <c r="T57" s="2"/>
-      <c r="U57" s="2"/>
-      <c r="V57" s="2"/>
-      <c r="W57" s="2"/>
-      <c r="X57" s="2"/>
+      <c r="S57" s="1"/>
+      <c r="T57" s="1"/>
+      <c r="U57" s="1"/>
+      <c r="V57" s="1"/>
+      <c r="W57" s="1"/>
+      <c r="X57" s="1"/>
       <c r="Z57">
         <v>3585</v>
       </c>
@@ -5199,7 +5209,7 @@
         <v>374286</v>
       </c>
     </row>
-    <row r="58" spans="5:45" x14ac:dyDescent="0.35">
+    <row r="58" spans="5:45" x14ac:dyDescent="0.25">
       <c r="E58">
         <v>4920</v>
       </c>
@@ -5236,12 +5246,12 @@
       <c r="Q58">
         <v>1147806</v>
       </c>
-      <c r="S58" s="2"/>
-      <c r="T58" s="2"/>
-      <c r="U58" s="2"/>
-      <c r="V58" s="2"/>
-      <c r="W58" s="2"/>
-      <c r="X58" s="2"/>
+      <c r="S58" s="1"/>
+      <c r="T58" s="1"/>
+      <c r="U58" s="1"/>
+      <c r="V58" s="1"/>
+      <c r="W58" s="1"/>
+      <c r="X58" s="1"/>
       <c r="Z58">
         <v>2867</v>
       </c>
@@ -5297,7 +5307,7 @@
         <v>416016</v>
       </c>
     </row>
-    <row r="59" spans="5:45" x14ac:dyDescent="0.35">
+    <row r="59" spans="5:45" x14ac:dyDescent="0.25">
       <c r="E59">
         <v>2494</v>
       </c>
@@ -5334,12 +5344,12 @@
       <c r="Q59">
         <v>1129392</v>
       </c>
-      <c r="S59" s="2"/>
-      <c r="T59" s="2"/>
-      <c r="U59" s="2"/>
-      <c r="V59" s="2"/>
-      <c r="W59" s="2"/>
-      <c r="X59" s="2"/>
+      <c r="S59" s="1"/>
+      <c r="T59" s="1"/>
+      <c r="U59" s="1"/>
+      <c r="V59" s="1"/>
+      <c r="W59" s="1"/>
+      <c r="X59" s="1"/>
       <c r="Z59">
         <v>2967</v>
       </c>
@@ -5395,7 +5405,7 @@
         <v>381348</v>
       </c>
     </row>
-    <row r="60" spans="5:45" x14ac:dyDescent="0.35">
+    <row r="60" spans="5:45" x14ac:dyDescent="0.25">
       <c r="E60">
         <v>4670</v>
       </c>
@@ -5432,12 +5442,12 @@
       <c r="Q60">
         <v>1225368</v>
       </c>
-      <c r="S60" s="2"/>
-      <c r="T60" s="2"/>
-      <c r="U60" s="2"/>
-      <c r="V60" s="2"/>
-      <c r="W60" s="2"/>
-      <c r="X60" s="2"/>
+      <c r="S60" s="1"/>
+      <c r="T60" s="1"/>
+      <c r="U60" s="1"/>
+      <c r="V60" s="1"/>
+      <c r="W60" s="1"/>
+      <c r="X60" s="1"/>
       <c r="Z60">
         <v>2875</v>
       </c>
@@ -5493,7 +5503,7 @@
         <v>374286</v>
       </c>
     </row>
-    <row r="61" spans="5:45" x14ac:dyDescent="0.35">
+    <row r="61" spans="5:45" x14ac:dyDescent="0.25">
       <c r="E61">
         <v>4166</v>
       </c>
@@ -5530,12 +5540,12 @@
       <c r="Q61">
         <v>1238760</v>
       </c>
-      <c r="S61" s="2"/>
-      <c r="T61" s="2"/>
-      <c r="U61" s="2"/>
-      <c r="V61" s="2"/>
-      <c r="W61" s="2"/>
-      <c r="X61" s="2"/>
+      <c r="S61" s="1"/>
+      <c r="T61" s="1"/>
+      <c r="U61" s="1"/>
+      <c r="V61" s="1"/>
+      <c r="W61" s="1"/>
+      <c r="X61" s="1"/>
       <c r="Z61">
         <v>3304</v>
       </c>
@@ -5591,143 +5601,143 @@
         <v>392040</v>
       </c>
     </row>
-    <row r="62" spans="5:45" x14ac:dyDescent="0.35">
-      <c r="S62" s="2"/>
-      <c r="T62" s="2"/>
-      <c r="U62" s="2"/>
-      <c r="V62" s="2"/>
-      <c r="W62" s="2"/>
-      <c r="X62" s="2"/>
+    <row r="62" spans="5:45" x14ac:dyDescent="0.25">
+      <c r="S62" s="1"/>
+      <c r="T62" s="1"/>
+      <c r="U62" s="1"/>
+      <c r="V62" s="1"/>
+      <c r="W62" s="1"/>
+      <c r="X62" s="1"/>
     </row>
-    <row r="63" spans="5:45" x14ac:dyDescent="0.35">
+    <row r="63" spans="5:45" x14ac:dyDescent="0.25">
       <c r="E63">
-        <f xml:space="preserve"> AVERAGE(E52:E61)</f>
+        <f t="shared" ref="E63:J63" si="17" xml:space="preserve"> AVERAGE(E52:E61)</f>
         <v>4205.8</v>
       </c>
       <c r="F63">
-        <f xml:space="preserve"> AVERAGE(F52:F61)</f>
+        <f t="shared" si="17"/>
         <v>728</v>
       </c>
       <c r="G63">
-        <f xml:space="preserve"> AVERAGE(G52:G61)</f>
+        <f t="shared" si="17"/>
         <v>3475.1</v>
       </c>
       <c r="H63">
-        <f xml:space="preserve"> AVERAGE(H52:H61)</f>
+        <f t="shared" si="17"/>
         <v>1.5</v>
       </c>
       <c r="I63">
-        <f xml:space="preserve"> AVERAGE(I52:I61)</f>
+        <f t="shared" si="17"/>
         <v>1.2</v>
       </c>
       <c r="J63">
-        <f xml:space="preserve"> AVERAGE(J52:J61)</f>
+        <f t="shared" si="17"/>
         <v>1380000</v>
       </c>
       <c r="L63">
-        <f xml:space="preserve"> AVERAGE(L52:L61)</f>
+        <f t="shared" ref="L63:Q63" si="18" xml:space="preserve"> AVERAGE(L52:L61)</f>
         <v>3581.3</v>
       </c>
       <c r="M63">
-        <f xml:space="preserve"> AVERAGE(M52:M61)</f>
+        <f t="shared" si="18"/>
         <v>600.79999999999995</v>
       </c>
       <c r="N63">
-        <f xml:space="preserve"> AVERAGE(N52:N61)</f>
+        <f t="shared" si="18"/>
         <v>2937.6</v>
       </c>
       <c r="O63">
-        <f xml:space="preserve"> AVERAGE(O52:O61)</f>
+        <f t="shared" si="18"/>
         <v>11.8</v>
       </c>
       <c r="P63">
-        <f xml:space="preserve"> AVERAGE(P52:P61)</f>
+        <f t="shared" si="18"/>
         <v>31.1</v>
       </c>
       <c r="Q63">
-        <f xml:space="preserve"> AVERAGE(Q52:Q61)</f>
+        <f t="shared" si="18"/>
         <v>1208391</v>
       </c>
-      <c r="S63" s="2"/>
-      <c r="T63" s="2"/>
-      <c r="U63" s="2"/>
-      <c r="V63" s="2"/>
-      <c r="W63" s="2"/>
-      <c r="X63" s="2"/>
+      <c r="S63" s="1"/>
+      <c r="T63" s="1"/>
+      <c r="U63" s="1"/>
+      <c r="V63" s="1"/>
+      <c r="W63" s="1"/>
+      <c r="X63" s="1"/>
       <c r="Z63">
-        <f xml:space="preserve"> AVERAGE(Z52:Z61)</f>
+        <f t="shared" ref="Z63:AE63" si="19" xml:space="preserve"> AVERAGE(Z52:Z61)</f>
         <v>3227</v>
       </c>
       <c r="AA63">
-        <f xml:space="preserve"> AVERAGE(AA52:AA61)</f>
+        <f t="shared" si="19"/>
         <v>348</v>
       </c>
       <c r="AB63">
-        <f xml:space="preserve"> AVERAGE(AB52:AB61)</f>
+        <f t="shared" si="19"/>
         <v>2412.1999999999998</v>
       </c>
       <c r="AC63">
-        <f xml:space="preserve"> AVERAGE(AC52:AC61)</f>
+        <f t="shared" si="19"/>
         <v>127.6</v>
       </c>
       <c r="AD63">
-        <f xml:space="preserve"> AVERAGE(AD52:AD61)</f>
+        <f t="shared" si="19"/>
         <v>339.2</v>
       </c>
       <c r="AE63">
-        <f xml:space="preserve"> AVERAGE(AE52:AE61)</f>
+        <f t="shared" si="19"/>
         <v>766962</v>
       </c>
       <c r="AG63">
-        <f xml:space="preserve"> AVERAGE(AG52:AG61)</f>
+        <f t="shared" ref="AG63:AL63" si="20" xml:space="preserve"> AVERAGE(AG52:AG61)</f>
         <v>2526.9</v>
       </c>
       <c r="AH63">
-        <f xml:space="preserve"> AVERAGE(AH52:AH61)</f>
+        <f t="shared" si="20"/>
         <v>256.39999999999998</v>
       </c>
       <c r="AI63">
-        <f xml:space="preserve"> AVERAGE(AI52:AI61)</f>
+        <f t="shared" si="20"/>
         <v>1870.5</v>
       </c>
       <c r="AJ63">
-        <f xml:space="preserve"> AVERAGE(AJ52:AJ61)</f>
+        <f t="shared" si="20"/>
         <v>129.69999999999999</v>
       </c>
       <c r="AK63">
-        <f xml:space="preserve"> AVERAGE(AK52:AK61)</f>
+        <f t="shared" si="20"/>
         <v>270.3</v>
       </c>
       <c r="AL63">
-        <f xml:space="preserve"> AVERAGE(AL52:AL61)</f>
+        <f t="shared" si="20"/>
         <v>579075.6</v>
       </c>
       <c r="AN63">
-        <f xml:space="preserve"> AVERAGE(AN52:AN61)</f>
+        <f t="shared" ref="AN63:AS63" si="21" xml:space="preserve"> AVERAGE(AN52:AN61)</f>
         <v>1527.9</v>
       </c>
       <c r="AO63">
-        <f xml:space="preserve"> AVERAGE(AO52:AO61)</f>
+        <f t="shared" si="21"/>
         <v>208.3</v>
       </c>
       <c r="AP63">
-        <f xml:space="preserve"> AVERAGE(AP52:AP61)</f>
+        <f t="shared" si="21"/>
         <v>1079.7</v>
       </c>
       <c r="AQ63">
-        <f xml:space="preserve"> AVERAGE(AQ52:AQ61)</f>
+        <f t="shared" si="21"/>
         <v>87.4</v>
       </c>
       <c r="AR63">
-        <f xml:space="preserve"> AVERAGE(AR52:AR61)</f>
+        <f t="shared" si="21"/>
         <v>152.4</v>
       </c>
       <c r="AS63">
-        <f xml:space="preserve"> AVERAGE(AS52:AS61)</f>
+        <f t="shared" si="21"/>
         <v>386938.5</v>
       </c>
     </row>
-    <row r="64" spans="5:45" x14ac:dyDescent="0.35">
+    <row r="64" spans="5:45" x14ac:dyDescent="0.25">
       <c r="I64">
         <f>SUM(H63:I63)</f>
         <v>2.7</v>
@@ -5749,31 +5759,21 @@
         <v>239.8</v>
       </c>
     </row>
-    <row r="70" spans="5:38" x14ac:dyDescent="0.35">
-      <c r="E70" s="3" t="s">
+    <row r="70" spans="5:38" x14ac:dyDescent="0.25">
+      <c r="E70" t="s">
         <v>20</v>
       </c>
-      <c r="F70" s="3"/>
-      <c r="G70" s="3"/>
-      <c r="H70" s="3"/>
-      <c r="I70" s="3"/>
-      <c r="J70" s="3"/>
     </row>
-    <row r="72" spans="5:38" x14ac:dyDescent="0.35">
+    <row r="72" spans="5:38" x14ac:dyDescent="0.25">
       <c r="E72" t="s">
         <v>21</v>
       </c>
       <c r="L72" t="s">
         <v>22</v>
       </c>
-      <c r="S72" s="4" t="s">
+      <c r="S72" t="s">
         <v>23</v>
       </c>
-      <c r="T72" s="4"/>
-      <c r="U72" s="4"/>
-      <c r="V72" s="4"/>
-      <c r="W72" s="4"/>
-      <c r="X72" s="4"/>
       <c r="Z72" t="s">
         <v>25</v>
       </c>
@@ -5781,7 +5781,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="73" spans="5:38" x14ac:dyDescent="0.35">
+    <row r="73" spans="5:38" x14ac:dyDescent="0.25">
       <c r="E73" t="s">
         <v>2</v>
       </c>
@@ -5818,22 +5818,22 @@
       <c r="Q73" t="s">
         <v>7</v>
       </c>
-      <c r="S73" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="T73" s="4" t="s">
+      <c r="S73" t="s">
+        <v>2</v>
+      </c>
+      <c r="T73" t="s">
         <v>3</v>
       </c>
-      <c r="U73" s="4" t="s">
+      <c r="U73" t="s">
         <v>4</v>
       </c>
-      <c r="V73" s="4" t="s">
+      <c r="V73" t="s">
         <v>5</v>
       </c>
-      <c r="W73" s="4" t="s">
+      <c r="W73" t="s">
         <v>6</v>
       </c>
-      <c r="X73" s="4" t="s">
+      <c r="X73" t="s">
         <v>7</v>
       </c>
       <c r="Z73" t="s">
@@ -5873,7 +5873,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="74" spans="5:38" x14ac:dyDescent="0.35">
+    <row r="74" spans="5:38" x14ac:dyDescent="0.25">
       <c r="E74">
         <v>365</v>
       </c>
@@ -5965,7 +5965,7 @@
         <v>4063500</v>
       </c>
     </row>
-    <row r="75" spans="5:38" x14ac:dyDescent="0.35">
+    <row r="75" spans="5:38" x14ac:dyDescent="0.25">
       <c r="E75">
         <v>204</v>
       </c>
@@ -6057,7 +6057,7 @@
         <v>4117500</v>
       </c>
     </row>
-    <row r="76" spans="5:38" x14ac:dyDescent="0.35">
+    <row r="76" spans="5:38" x14ac:dyDescent="0.25">
       <c r="E76">
         <v>180</v>
       </c>
@@ -6149,7 +6149,7 @@
         <v>4158675</v>
       </c>
     </row>
-    <row r="77" spans="5:38" x14ac:dyDescent="0.35">
+    <row r="77" spans="5:38" x14ac:dyDescent="0.25">
       <c r="E77">
         <v>132</v>
       </c>
@@ -6241,7 +6241,7 @@
         <v>4077000</v>
       </c>
     </row>
-    <row r="78" spans="5:38" x14ac:dyDescent="0.35">
+    <row r="78" spans="5:38" x14ac:dyDescent="0.25">
       <c r="E78">
         <v>195</v>
       </c>
@@ -6333,7 +6333,7 @@
         <v>4172400</v>
       </c>
     </row>
-    <row r="79" spans="5:38" x14ac:dyDescent="0.35">
+    <row r="79" spans="5:38" x14ac:dyDescent="0.25">
       <c r="E79">
         <v>133</v>
       </c>
@@ -6425,7 +6425,7 @@
         <v>4158675</v>
       </c>
     </row>
-    <row r="80" spans="5:38" x14ac:dyDescent="0.35">
+    <row r="80" spans="5:38" x14ac:dyDescent="0.25">
       <c r="E80">
         <v>182</v>
       </c>
@@ -6517,7 +6517,7 @@
         <v>4158720</v>
       </c>
     </row>
-    <row r="81" spans="5:59" x14ac:dyDescent="0.35">
+    <row r="81" spans="5:59" x14ac:dyDescent="0.25">
       <c r="E81">
         <v>136</v>
       </c>
@@ -6609,7 +6609,7 @@
         <v>4117770</v>
       </c>
     </row>
-    <row r="82" spans="5:59" x14ac:dyDescent="0.35">
+    <row r="82" spans="5:59" x14ac:dyDescent="0.25">
       <c r="E82">
         <v>139</v>
       </c>
@@ -6701,7 +6701,7 @@
         <v>4117230</v>
       </c>
     </row>
-    <row r="83" spans="5:59" x14ac:dyDescent="0.35">
+    <row r="83" spans="5:59" x14ac:dyDescent="0.25">
       <c r="E83">
         <v>270</v>
       </c>
@@ -6793,129 +6793,129 @@
         <v>4185945</v>
       </c>
     </row>
-    <row r="85" spans="5:59" x14ac:dyDescent="0.35">
+    <row r="85" spans="5:59" x14ac:dyDescent="0.25">
       <c r="E85">
-        <f xml:space="preserve"> AVERAGE(E74:E83)</f>
+        <f t="shared" ref="E85:J85" si="22" xml:space="preserve"> AVERAGE(E74:E83)</f>
         <v>193.6</v>
       </c>
       <c r="F85">
-        <f xml:space="preserve"> AVERAGE(F74:F83)</f>
+        <f t="shared" si="22"/>
         <v>45.8</v>
       </c>
       <c r="G85">
-        <f xml:space="preserve"> AVERAGE(G74:G83)</f>
+        <f t="shared" si="22"/>
         <v>116.3</v>
       </c>
       <c r="H85">
-        <f xml:space="preserve"> AVERAGE(H74:H83)</f>
+        <f t="shared" si="22"/>
         <v>11</v>
       </c>
       <c r="I85">
-        <f xml:space="preserve"> AVERAGE(I74:I83)</f>
+        <f t="shared" si="22"/>
         <v>20.5</v>
       </c>
       <c r="J85">
-        <f xml:space="preserve"> AVERAGE(J74:J83)</f>
+        <f t="shared" si="22"/>
         <v>82247.399999999994</v>
       </c>
       <c r="L85">
-        <f xml:space="preserve"> AVERAGE(L74:L83)</f>
+        <f t="shared" ref="L85:Q85" si="23" xml:space="preserve"> AVERAGE(L74:L83)</f>
         <v>2427.6</v>
       </c>
       <c r="M85">
-        <f xml:space="preserve"> AVERAGE(M74:M83)</f>
+        <f t="shared" si="23"/>
         <v>256.8</v>
       </c>
       <c r="N85">
-        <f xml:space="preserve"> AVERAGE(N74:N83)</f>
+        <f t="shared" si="23"/>
         <v>1782.5</v>
       </c>
       <c r="O85">
-        <f xml:space="preserve"> AVERAGE(O74:O83)</f>
+        <f t="shared" si="23"/>
         <v>133.1</v>
       </c>
       <c r="P85">
-        <f xml:space="preserve"> AVERAGE(P74:P83)</f>
+        <f t="shared" si="23"/>
         <v>255.2</v>
       </c>
       <c r="Q85">
-        <f xml:space="preserve"> AVERAGE(Q74:Q83)</f>
+        <f t="shared" si="23"/>
         <v>579075.6</v>
       </c>
       <c r="S85">
-        <f xml:space="preserve"> AVERAGE(S74:S83)</f>
+        <f t="shared" ref="S85:X85" si="24" xml:space="preserve"> AVERAGE(S74:S83)</f>
         <v>9137.4</v>
       </c>
       <c r="T85">
-        <f xml:space="preserve"> AVERAGE(T74:T83)</f>
+        <f t="shared" si="24"/>
         <v>618.9</v>
       </c>
       <c r="U85">
-        <f xml:space="preserve"> AVERAGE(U74:U83)</f>
+        <f t="shared" si="24"/>
         <v>7624.9</v>
       </c>
       <c r="V85">
-        <f xml:space="preserve"> AVERAGE(V74:V83)</f>
+        <f t="shared" si="24"/>
         <v>501.9</v>
       </c>
       <c r="W85">
-        <f xml:space="preserve"> AVERAGE(W74:W83)</f>
+        <f t="shared" si="24"/>
         <v>391.7</v>
       </c>
       <c r="X85">
-        <f xml:space="preserve"> AVERAGE(X74:X83)</f>
+        <f t="shared" si="24"/>
         <v>1530861</v>
       </c>
       <c r="Z85">
-        <f xml:space="preserve"> AVERAGE(Z74:Z83)</f>
+        <f t="shared" ref="Z85:AE85" si="25" xml:space="preserve"> AVERAGE(Z74:Z83)</f>
         <v>15790.3</v>
       </c>
       <c r="AA85">
-        <f xml:space="preserve"> AVERAGE(AA74:AA83)</f>
+        <f t="shared" si="25"/>
         <v>1687.8</v>
       </c>
       <c r="AB85">
-        <f xml:space="preserve"> AVERAGE(AB74:AB83)</f>
+        <f t="shared" si="25"/>
         <v>11301.5</v>
       </c>
       <c r="AC85">
-        <f xml:space="preserve"> AVERAGE(AC74:AC83)</f>
+        <f t="shared" si="25"/>
         <v>1066.3</v>
       </c>
       <c r="AD85">
-        <f xml:space="preserve"> AVERAGE(AD74:AD83)</f>
+        <f t="shared" si="25"/>
         <v>1734.7</v>
       </c>
       <c r="AE85">
-        <f xml:space="preserve"> AVERAGE(AE74:AE83)</f>
+        <f t="shared" si="25"/>
         <v>2693367</v>
       </c>
       <c r="AG85">
-        <f xml:space="preserve"> AVERAGE(AG74:AG83)</f>
+        <f t="shared" ref="AG85:AL85" si="26" xml:space="preserve"> AVERAGE(AG74:AG83)</f>
         <v>28479.9</v>
       </c>
       <c r="AH85">
-        <f xml:space="preserve"> AVERAGE(AH74:AH83)</f>
+        <f t="shared" si="26"/>
         <v>2813.7</v>
       </c>
       <c r="AI85">
-        <f xml:space="preserve"> AVERAGE(AI74:AI83)</f>
+        <f t="shared" si="26"/>
         <v>20859.5</v>
       </c>
       <c r="AJ85">
-        <f xml:space="preserve"> AVERAGE(AJ74:AJ83)</f>
+        <f t="shared" si="26"/>
         <v>1966.6</v>
       </c>
       <c r="AK85">
-        <f xml:space="preserve"> AVERAGE(AK74:AK83)</f>
+        <f t="shared" si="26"/>
         <v>2840.1</v>
       </c>
       <c r="AL85">
-        <f xml:space="preserve"> AVERAGE(AL74:AL83)</f>
+        <f t="shared" si="26"/>
         <v>4132741.5</v>
       </c>
     </row>
-    <row r="86" spans="5:59" x14ac:dyDescent="0.35">
+    <row r="86" spans="5:59" x14ac:dyDescent="0.25">
       <c r="I86">
         <f>SUM(H85:I85)</f>
         <v>31.5</v>
@@ -6937,16 +6937,12 @@
         <v>4806.7</v>
       </c>
     </row>
-    <row r="92" spans="5:59" x14ac:dyDescent="0.35">
-      <c r="E92" s="3" t="s">
+    <row r="92" spans="5:59" x14ac:dyDescent="0.25">
+      <c r="E92" t="s">
         <v>26</v>
       </c>
-      <c r="F92" s="3"/>
-      <c r="G92" s="3"/>
-      <c r="H92" s="3"/>
-      <c r="I92" s="3"/>
     </row>
-    <row r="94" spans="5:59" x14ac:dyDescent="0.35">
+    <row r="94" spans="5:59" x14ac:dyDescent="0.25">
       <c r="E94" t="s">
         <v>27</v>
       </c>
@@ -6972,7 +6968,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="95" spans="5:59" x14ac:dyDescent="0.35">
+    <row r="95" spans="5:59" x14ac:dyDescent="0.25">
       <c r="E95" t="s">
         <v>2</v>
       </c>
@@ -7118,7 +7114,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="96" spans="5:59" x14ac:dyDescent="0.35">
+    <row r="96" spans="5:59" x14ac:dyDescent="0.25">
       <c r="E96">
         <v>11</v>
       </c>
@@ -7264,7 +7260,7 @@
         <v>17019945</v>
       </c>
     </row>
-    <row r="97" spans="5:52" x14ac:dyDescent="0.35">
+    <row r="97" spans="5:52" x14ac:dyDescent="0.25">
       <c r="E97">
         <v>5</v>
       </c>
@@ -7392,7 +7388,7 @@
         <v>3942720</v>
       </c>
     </row>
-    <row r="98" spans="5:52" x14ac:dyDescent="0.35">
+    <row r="98" spans="5:52" x14ac:dyDescent="0.25">
       <c r="E98">
         <v>2</v>
       </c>
@@ -7520,7 +7516,7 @@
         <v>3942720</v>
       </c>
     </row>
-    <row r="99" spans="5:52" x14ac:dyDescent="0.35">
+    <row r="99" spans="5:52" x14ac:dyDescent="0.25">
       <c r="E99">
         <v>10</v>
       </c>
@@ -7648,7 +7644,7 @@
         <v>3956040</v>
       </c>
     </row>
-    <row r="100" spans="5:52" x14ac:dyDescent="0.35">
+    <row r="100" spans="5:52" x14ac:dyDescent="0.25">
       <c r="E100">
         <v>4</v>
       </c>
@@ -7776,7 +7772,7 @@
         <v>3667440</v>
       </c>
     </row>
-    <row r="101" spans="5:52" x14ac:dyDescent="0.35">
+    <row r="101" spans="5:52" x14ac:dyDescent="0.25">
       <c r="E101">
         <v>4</v>
       </c>
@@ -7904,7 +7900,7 @@
         <v>3942675</v>
       </c>
     </row>
-    <row r="102" spans="5:52" x14ac:dyDescent="0.35">
+    <row r="102" spans="5:52" x14ac:dyDescent="0.25">
       <c r="E102">
         <v>3</v>
       </c>
@@ -8032,7 +8028,7 @@
         <v>3956040</v>
       </c>
     </row>
-    <row r="103" spans="5:52" x14ac:dyDescent="0.35">
+    <row r="103" spans="5:52" x14ac:dyDescent="0.25">
       <c r="E103">
         <v>2</v>
       </c>
@@ -8160,7 +8156,7 @@
         <v>3916080</v>
       </c>
     </row>
-    <row r="104" spans="5:52" x14ac:dyDescent="0.35">
+    <row r="104" spans="5:52" x14ac:dyDescent="0.25">
       <c r="E104">
         <v>3</v>
       </c>
@@ -8288,7 +8284,7 @@
         <v>3956040</v>
       </c>
     </row>
-    <row r="105" spans="5:52" x14ac:dyDescent="0.35">
+    <row r="105" spans="5:52" x14ac:dyDescent="0.25">
       <c r="E105">
         <v>3</v>
       </c>
@@ -8416,201 +8412,196 @@
         <v>3929400</v>
       </c>
     </row>
-    <row r="107" spans="5:52" x14ac:dyDescent="0.35">
+    <row r="107" spans="5:52" x14ac:dyDescent="0.25">
       <c r="E107">
-        <f xml:space="preserve"> AVERAGE(E96:E105)</f>
+        <f t="shared" ref="E107:J107" si="27" xml:space="preserve"> AVERAGE(E96:E105)</f>
         <v>4.7</v>
       </c>
       <c r="F107">
-        <f xml:space="preserve"> AVERAGE(F96:F105)</f>
+        <f t="shared" si="27"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="G107">
-        <f xml:space="preserve"> AVERAGE(G96:G105)</f>
+        <f t="shared" si="27"/>
         <v>2.8</v>
       </c>
       <c r="H107">
-        <f xml:space="preserve"> AVERAGE(H96:H105)</f>
+        <f t="shared" si="27"/>
         <v>0.1</v>
       </c>
       <c r="I107">
-        <f xml:space="preserve"> AVERAGE(I96:I105)</f>
+        <f t="shared" si="27"/>
         <v>0.7</v>
       </c>
       <c r="J107">
-        <f xml:space="preserve"> AVERAGE(J96:J105)</f>
+        <f t="shared" si="27"/>
         <v>279.3</v>
       </c>
       <c r="L107">
-        <f xml:space="preserve"> AVERAGE(L96:L105)</f>
+        <f t="shared" ref="L107:Q107" si="28" xml:space="preserve"> AVERAGE(L96:L105)</f>
         <v>6.7</v>
       </c>
       <c r="M107">
-        <f xml:space="preserve"> AVERAGE(M96:M105)</f>
+        <f t="shared" si="28"/>
         <v>2.2999999999999998</v>
       </c>
       <c r="N107">
-        <f xml:space="preserve"> AVERAGE(N96:N105)</f>
+        <f t="shared" si="28"/>
         <v>3.5</v>
       </c>
       <c r="O107">
-        <f xml:space="preserve"> AVERAGE(O96:O105)</f>
+        <f t="shared" si="28"/>
         <v>0.2</v>
       </c>
       <c r="P107">
-        <f xml:space="preserve"> AVERAGE(P96:P105)</f>
+        <f t="shared" si="28"/>
         <v>0.7</v>
       </c>
       <c r="Q107">
-        <f xml:space="preserve"> AVERAGE(Q96:Q105)</f>
+        <f t="shared" si="28"/>
         <v>665.4</v>
       </c>
       <c r="S107">
-        <f xml:space="preserve"> AVERAGE(S96:S105)</f>
+        <f t="shared" ref="S107:X107" si="29" xml:space="preserve"> AVERAGE(S96:S105)</f>
         <v>9</v>
       </c>
       <c r="T107">
-        <f xml:space="preserve"> AVERAGE(T96:T105)</f>
+        <f t="shared" si="29"/>
         <v>3.4</v>
       </c>
       <c r="U107">
-        <f xml:space="preserve"> AVERAGE(U96:U105)</f>
+        <f t="shared" si="29"/>
         <v>4.8</v>
       </c>
       <c r="V107">
-        <f xml:space="preserve"> AVERAGE(V96:V105)</f>
+        <f t="shared" si="29"/>
         <v>0.1</v>
       </c>
       <c r="W107">
-        <f xml:space="preserve"> AVERAGE(W96:W105)</f>
+        <f t="shared" si="29"/>
         <v>0.7</v>
       </c>
       <c r="X107">
-        <f xml:space="preserve"> AVERAGE(X96:X105)</f>
+        <f t="shared" si="29"/>
         <v>1207.5</v>
       </c>
       <c r="Z107">
-        <f xml:space="preserve"> AVERAGE(Z96:Z105)</f>
+        <f t="shared" ref="Z107:AE107" si="30" xml:space="preserve"> AVERAGE(Z96:Z105)</f>
         <v>44.3</v>
       </c>
       <c r="AA107">
-        <f xml:space="preserve"> AVERAGE(AA96:AA105)</f>
+        <f t="shared" si="30"/>
         <v>14.6</v>
       </c>
       <c r="AB107">
-        <f xml:space="preserve"> AVERAGE(AB96:AB105)</f>
+        <f t="shared" si="30"/>
         <v>24.7</v>
       </c>
       <c r="AC107">
-        <f xml:space="preserve"> AVERAGE(AC96:AC105)</f>
+        <f t="shared" si="30"/>
         <v>1.2</v>
       </c>
       <c r="AD107">
-        <f xml:space="preserve"> AVERAGE(AD96:AD105)</f>
+        <f t="shared" si="30"/>
         <v>3.8</v>
       </c>
       <c r="AE107">
-        <f xml:space="preserve"> AVERAGE(AE96:AE105)</f>
+        <f t="shared" si="30"/>
         <v>16339.5</v>
       </c>
       <c r="AG107">
-        <f xml:space="preserve"> AVERAGE(AG96:AG105)</f>
+        <f t="shared" ref="AG107:AL107" si="31" xml:space="preserve"> AVERAGE(AG96:AG105)</f>
         <v>120.8</v>
       </c>
       <c r="AH107">
-        <f xml:space="preserve"> AVERAGE(AH96:AH105)</f>
+        <f t="shared" si="31"/>
         <v>36.6</v>
       </c>
       <c r="AI107">
-        <f xml:space="preserve"> AVERAGE(AI96:AI105)</f>
+        <f t="shared" si="31"/>
         <v>77.099999999999994</v>
       </c>
       <c r="AJ107">
-        <f xml:space="preserve"> AVERAGE(AJ96:AJ105)</f>
+        <f t="shared" si="31"/>
         <v>1.9</v>
       </c>
       <c r="AK107">
-        <f xml:space="preserve"> AVERAGE(AK96:AK105)</f>
+        <f t="shared" si="31"/>
         <v>5.2</v>
       </c>
       <c r="AL107">
-        <f xml:space="preserve"> AVERAGE(AL96:AL105)</f>
+        <f t="shared" si="31"/>
         <v>56382</v>
       </c>
       <c r="AN107">
-        <f xml:space="preserve"> AVERAGE(AN96:AN105)</f>
+        <f t="shared" ref="AN107:AS107" si="32" xml:space="preserve"> AVERAGE(AN96:AN105)</f>
         <v>570.4</v>
       </c>
       <c r="AO107">
-        <f xml:space="preserve"> AVERAGE(AO96:AO105)</f>
+        <f t="shared" si="32"/>
         <v>120.5</v>
       </c>
       <c r="AP107">
-        <f xml:space="preserve"> AVERAGE(AP96:AP105)</f>
+        <f t="shared" si="32"/>
         <v>426</v>
       </c>
       <c r="AQ107">
-        <f xml:space="preserve"> AVERAGE(AQ96:AQ105)</f>
+        <f t="shared" si="32"/>
         <v>11</v>
       </c>
       <c r="AR107">
-        <f xml:space="preserve"> AVERAGE(AR96:AR105)</f>
+        <f t="shared" si="32"/>
         <v>12.8</v>
       </c>
       <c r="AS107">
-        <f xml:space="preserve"> AVERAGE(AS96:AS105)</f>
+        <f t="shared" si="32"/>
         <v>226268.7</v>
       </c>
       <c r="AU107">
-        <f xml:space="preserve"> AVERAGE(AU96:AU105)</f>
+        <f t="shared" ref="AU107:AZ107" si="33" xml:space="preserve"> AVERAGE(AU96:AU105)</f>
         <v>18923.599999999999</v>
       </c>
       <c r="AV107">
-        <f xml:space="preserve"> AVERAGE(AV96:AV105)</f>
+        <f t="shared" si="33"/>
         <v>3416.1</v>
       </c>
       <c r="AW107">
-        <f xml:space="preserve"> AVERAGE(AW96:AW105)</f>
+        <f t="shared" si="33"/>
         <v>14971.1</v>
       </c>
       <c r="AX107">
-        <f xml:space="preserve"> AVERAGE(AX96:AX105)</f>
+        <f t="shared" si="33"/>
         <v>344.5</v>
       </c>
       <c r="AY107">
-        <f xml:space="preserve"> AVERAGE(AY96:AY105)</f>
+        <f t="shared" si="33"/>
         <v>191.9</v>
       </c>
       <c r="AZ107">
-        <f xml:space="preserve"> AVERAGE(AZ96:AZ105)</f>
+        <f t="shared" si="33"/>
         <v>3913855.5</v>
       </c>
     </row>
-    <row r="115" spans="5:80" x14ac:dyDescent="0.35">
-      <c r="E115" s="1" t="s">
+    <row r="115" spans="5:80" x14ac:dyDescent="0.25">
+      <c r="E115" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F115" s="1"/>
-      <c r="G115" s="1"/>
-      <c r="H115" s="1"/>
-      <c r="I115" s="1"/>
-      <c r="J115" s="1"/>
+      <c r="F115" s="2"/>
+      <c r="G115" s="2"/>
+      <c r="H115" s="2"/>
+      <c r="I115" s="2"/>
+      <c r="J115" s="2"/>
     </row>
-    <row r="117" spans="5:80" x14ac:dyDescent="0.35">
+    <row r="117" spans="5:80" x14ac:dyDescent="0.25">
       <c r="E117" t="s">
         <v>1</v>
       </c>
       <c r="L117" t="s">
         <v>8</v>
       </c>
-      <c r="S117" s="4" t="s">
+      <c r="S117" t="s">
         <v>9</v>
       </c>
-      <c r="T117" s="4"/>
-      <c r="U117" s="4"/>
-      <c r="V117" s="4"/>
-      <c r="W117" s="4"/>
-      <c r="X117" s="4"/>
       <c r="Z117" t="s">
         <v>10</v>
       </c>
@@ -8636,7 +8627,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="118" spans="5:80" x14ac:dyDescent="0.35">
+    <row r="118" spans="5:80" x14ac:dyDescent="0.25">
       <c r="E118" t="s">
         <v>2</v>
       </c>
@@ -8673,22 +8664,22 @@
       <c r="Q118" t="s">
         <v>7</v>
       </c>
-      <c r="S118" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="T118" s="4" t="s">
+      <c r="S118" t="s">
+        <v>2</v>
+      </c>
+      <c r="T118" t="s">
         <v>3</v>
       </c>
-      <c r="U118" s="4" t="s">
+      <c r="U118" t="s">
         <v>4</v>
       </c>
-      <c r="V118" s="4" t="s">
+      <c r="V118" t="s">
         <v>5</v>
       </c>
-      <c r="W118" s="4" t="s">
+      <c r="W118" t="s">
         <v>6</v>
       </c>
-      <c r="X118" s="4" t="s">
+      <c r="X118" t="s">
         <v>7</v>
       </c>
       <c r="Z118" t="s">
@@ -8836,7 +8827,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="119" spans="5:80" x14ac:dyDescent="0.35">
+    <row r="119" spans="5:80" x14ac:dyDescent="0.25">
       <c r="E119">
         <v>424</v>
       </c>
@@ -9036,7 +9027,7 @@
         <v>4936176</v>
       </c>
     </row>
-    <row r="120" spans="5:80" x14ac:dyDescent="0.35">
+    <row r="120" spans="5:80" x14ac:dyDescent="0.25">
       <c r="E120">
         <v>280</v>
       </c>
@@ -9236,7 +9227,7 @@
         <v>4855032</v>
       </c>
     </row>
-    <row r="121" spans="5:80" x14ac:dyDescent="0.35">
+    <row r="121" spans="5:80" x14ac:dyDescent="0.25">
       <c r="E121">
         <v>262</v>
       </c>
@@ -9436,7 +9427,7 @@
         <v>5019840</v>
       </c>
     </row>
-    <row r="122" spans="5:80" x14ac:dyDescent="0.35">
+    <row r="122" spans="5:80" x14ac:dyDescent="0.25">
       <c r="E122">
         <v>211</v>
       </c>
@@ -9636,7 +9627,7 @@
         <v>5019840</v>
       </c>
     </row>
-    <row r="123" spans="5:80" x14ac:dyDescent="0.35">
+    <row r="123" spans="5:80" x14ac:dyDescent="0.25">
       <c r="E123">
         <v>249</v>
       </c>
@@ -9836,7 +9827,7 @@
         <v>4881396</v>
       </c>
     </row>
-    <row r="124" spans="5:80" x14ac:dyDescent="0.35">
+    <row r="124" spans="5:80" x14ac:dyDescent="0.25">
       <c r="E124">
         <v>259</v>
       </c>
@@ -10036,7 +10027,7 @@
         <v>4573800</v>
       </c>
     </row>
-    <row r="125" spans="5:80" x14ac:dyDescent="0.35">
+    <row r="125" spans="5:80" x14ac:dyDescent="0.25">
       <c r="E125">
         <v>296</v>
       </c>
@@ -10236,7 +10227,7 @@
         <v>5050080</v>
       </c>
     </row>
-    <row r="126" spans="5:80" x14ac:dyDescent="0.35">
+    <row r="126" spans="5:80" x14ac:dyDescent="0.25">
       <c r="E126">
         <v>218</v>
       </c>
@@ -10436,7 +10427,7 @@
         <v>4910802</v>
       </c>
     </row>
-    <row r="127" spans="5:80" x14ac:dyDescent="0.35">
+    <row r="127" spans="5:80" x14ac:dyDescent="0.25">
       <c r="E127">
         <v>220</v>
       </c>
@@ -10636,7 +10627,7 @@
         <v>4940208</v>
       </c>
     </row>
-    <row r="128" spans="5:80" x14ac:dyDescent="0.35">
+    <row r="128" spans="5:80" x14ac:dyDescent="0.25">
       <c r="E128">
         <v>298</v>
       </c>
@@ -10836,277 +10827,273 @@
         <v>4940208</v>
       </c>
     </row>
-    <row r="130" spans="5:80" x14ac:dyDescent="0.35">
+    <row r="130" spans="5:80" x14ac:dyDescent="0.25">
       <c r="E130">
-        <f xml:space="preserve"> AVERAGE(E119:E128)</f>
+        <f t="shared" ref="E130:J130" si="34" xml:space="preserve"> AVERAGE(E119:E128)</f>
         <v>271.7</v>
       </c>
       <c r="F130">
-        <f xml:space="preserve"> AVERAGE(F119:F128)</f>
+        <f t="shared" si="34"/>
         <v>36.9</v>
       </c>
       <c r="G130">
-        <f xml:space="preserve"> AVERAGE(G119:G128)</f>
+        <f t="shared" si="34"/>
         <v>214.7</v>
       </c>
       <c r="H130">
-        <f xml:space="preserve"> AVERAGE(H119:H128)</f>
+        <f t="shared" si="34"/>
         <v>6.3</v>
       </c>
       <c r="I130">
-        <f xml:space="preserve"> AVERAGE(I119:I128)</f>
+        <f t="shared" si="34"/>
         <v>13.8</v>
       </c>
       <c r="J130">
-        <f xml:space="preserve"> AVERAGE(J119:J128)</f>
+        <f t="shared" si="34"/>
         <v>84267.9</v>
       </c>
       <c r="L130">
-        <f xml:space="preserve"> AVERAGE(L119:L128)</f>
+        <f t="shared" ref="L130:Q130" si="35" xml:space="preserve"> AVERAGE(L119:L128)</f>
         <v>2067.6</v>
       </c>
       <c r="M130">
-        <f xml:space="preserve"> AVERAGE(M119:M128)</f>
+        <f t="shared" si="35"/>
         <v>248.2</v>
       </c>
       <c r="N130">
-        <f xml:space="preserve"> AVERAGE(N119:N128)</f>
+        <f t="shared" si="35"/>
         <v>1689.1</v>
       </c>
       <c r="O130">
-        <f xml:space="preserve"> AVERAGE(O119:O128)</f>
+        <f t="shared" si="35"/>
         <v>47.2</v>
       </c>
       <c r="P130">
-        <f xml:space="preserve"> AVERAGE(P119:P128)</f>
+        <f t="shared" si="35"/>
         <v>83.1</v>
       </c>
       <c r="Q130">
-        <f xml:space="preserve"> AVERAGE(Q119:Q128)</f>
+        <f t="shared" si="35"/>
         <v>488925</v>
       </c>
       <c r="S130">
-        <f xml:space="preserve"> AVERAGE(S119:S128)</f>
+        <f t="shared" ref="S130:X130" si="36" xml:space="preserve"> AVERAGE(S119:S128)</f>
         <v>3624.9</v>
       </c>
       <c r="T130">
-        <f xml:space="preserve"> AVERAGE(T119:T128)</f>
+        <f t="shared" si="36"/>
         <v>476.3</v>
       </c>
       <c r="U130">
-        <f xml:space="preserve"> AVERAGE(U119:U128)</f>
+        <f t="shared" si="36"/>
         <v>3012</v>
       </c>
       <c r="V130">
-        <f xml:space="preserve"> AVERAGE(V119:V128)</f>
+        <f t="shared" si="36"/>
         <v>76.900000000000006</v>
       </c>
       <c r="W130">
-        <f xml:space="preserve"> AVERAGE(W119:W128)</f>
+        <f t="shared" si="36"/>
         <v>59.7</v>
       </c>
       <c r="X130">
-        <f xml:space="preserve"> AVERAGE(X119:X128)</f>
+        <f t="shared" si="36"/>
         <v>968929.2</v>
       </c>
       <c r="Z130">
-        <f xml:space="preserve"> AVERAGE(Z119:Z128)</f>
+        <f t="shared" ref="Z130:AE130" si="37" xml:space="preserve"> AVERAGE(Z119:Z128)</f>
         <v>5266</v>
       </c>
       <c r="AA130">
-        <f xml:space="preserve"> AVERAGE(AA119:AA128)</f>
+        <f t="shared" si="37"/>
         <v>659.1</v>
       </c>
       <c r="AB130">
-        <f xml:space="preserve"> AVERAGE(AB119:AB128)</f>
+        <f t="shared" si="37"/>
         <v>4397.1000000000004</v>
       </c>
       <c r="AC130">
-        <f xml:space="preserve"> AVERAGE(AC119:AC128)</f>
+        <f t="shared" si="37"/>
         <v>99.8</v>
       </c>
       <c r="AD130">
-        <f xml:space="preserve"> AVERAGE(AD119:AD128)</f>
+        <f t="shared" si="37"/>
         <v>110</v>
       </c>
       <c r="AE130">
-        <f xml:space="preserve"> AVERAGE(AE119:AE128)</f>
+        <f t="shared" si="37"/>
         <v>1458055.8</v>
       </c>
       <c r="AG130">
-        <f xml:space="preserve"> AVERAGE(AG119:AG128)</f>
+        <f t="shared" ref="AG130:AL130" si="38" xml:space="preserve"> AVERAGE(AG119:AG128)</f>
         <v>6221.4</v>
       </c>
       <c r="AH130">
-        <f xml:space="preserve"> AVERAGE(AH119:AH128)</f>
+        <f t="shared" si="38"/>
         <v>999.2</v>
       </c>
       <c r="AI130">
-        <f xml:space="preserve"> AVERAGE(AI119:AI128)</f>
+        <f t="shared" si="38"/>
         <v>4809.3999999999996</v>
       </c>
       <c r="AJ130">
-        <f xml:space="preserve"> AVERAGE(AJ119:AJ128)</f>
+        <f t="shared" si="38"/>
         <v>128.6</v>
       </c>
       <c r="AK130">
-        <f xml:space="preserve"> AVERAGE(AK119:AK128)</f>
+        <f t="shared" si="38"/>
         <v>284.2</v>
       </c>
       <c r="AL130">
-        <f xml:space="preserve"> AVERAGE(AL119:AL128)</f>
+        <f t="shared" si="38"/>
         <v>1971676.8</v>
       </c>
       <c r="AN130">
-        <f xml:space="preserve"> AVERAGE(AN119:AN128)</f>
+        <f t="shared" ref="AN130:AS130" si="39" xml:space="preserve"> AVERAGE(AN119:AN128)</f>
         <v>7128.5</v>
       </c>
       <c r="AO130">
-        <f xml:space="preserve"> AVERAGE(AO119:AO128)</f>
+        <f t="shared" si="39"/>
         <v>1207.5</v>
       </c>
       <c r="AP130">
-        <f xml:space="preserve"> AVERAGE(AP119:AP128)</f>
+        <f t="shared" si="39"/>
         <v>5342.2</v>
       </c>
       <c r="AQ130">
-        <f xml:space="preserve"> AVERAGE(AQ119:AQ128)</f>
+        <f t="shared" si="39"/>
         <v>124</v>
       </c>
       <c r="AR130">
-        <f xml:space="preserve"> AVERAGE(AR119:AR128)</f>
+        <f t="shared" si="39"/>
         <v>454.8</v>
       </c>
       <c r="AS130">
-        <f xml:space="preserve"> AVERAGE(AS119:AS128)</f>
+        <f t="shared" si="39"/>
         <v>2410253.7000000002</v>
       </c>
       <c r="AU130">
-        <f xml:space="preserve"> AVERAGE(AU119:AU128)</f>
+        <f t="shared" ref="AU130:AZ130" si="40" xml:space="preserve"> AVERAGE(AU119:AU128)</f>
         <v>7741.4</v>
       </c>
       <c r="AV130">
-        <f xml:space="preserve"> AVERAGE(AV119:AV128)</f>
+        <f t="shared" si="40"/>
         <v>1524.9</v>
       </c>
       <c r="AW130">
-        <f xml:space="preserve"> AVERAGE(AW119:AW128)</f>
+        <f t="shared" si="40"/>
         <v>5958.5</v>
       </c>
       <c r="AX130">
-        <f xml:space="preserve"> AVERAGE(AX119:AX128)</f>
+        <f t="shared" si="40"/>
         <v>77.099999999999994</v>
       </c>
       <c r="AY130">
-        <f xml:space="preserve"> AVERAGE(AY119:AY128)</f>
+        <f t="shared" si="40"/>
         <v>180.8</v>
       </c>
       <c r="AZ130">
-        <f xml:space="preserve"> AVERAGE(AZ119:AZ128)</f>
+        <f t="shared" si="40"/>
         <v>2958044.4</v>
       </c>
       <c r="BB130">
-        <f xml:space="preserve"> AVERAGE(BB119:BB128)</f>
+        <f t="shared" ref="BB130:BG130" si="41" xml:space="preserve"> AVERAGE(BB119:BB128)</f>
         <v>8772.2000000000007</v>
       </c>
       <c r="BC130">
-        <f xml:space="preserve"> AVERAGE(BC119:BC128)</f>
+        <f t="shared" si="41"/>
         <v>1980.8</v>
       </c>
       <c r="BD130">
-        <f xml:space="preserve"> AVERAGE(BD119:BD128)</f>
+        <f t="shared" si="41"/>
         <v>6559.2</v>
       </c>
       <c r="BE130">
-        <f xml:space="preserve"> AVERAGE(BE119:BE128)</f>
+        <f t="shared" si="41"/>
         <v>84.2</v>
       </c>
       <c r="BF130">
-        <f xml:space="preserve"> AVERAGE(BF119:BF128)</f>
+        <f t="shared" si="41"/>
         <v>148</v>
       </c>
       <c r="BG130">
-        <f xml:space="preserve"> AVERAGE(BG119:BG128)</f>
+        <f t="shared" si="41"/>
         <v>3379182.6</v>
       </c>
       <c r="BI130">
-        <f xml:space="preserve"> AVERAGE(BI119:BI128)</f>
+        <f t="shared" ref="BI130:BN130" si="42" xml:space="preserve"> AVERAGE(BI119:BI128)</f>
         <v>10294.9</v>
       </c>
       <c r="BJ130">
-        <f xml:space="preserve"> AVERAGE(BJ119:BJ128)</f>
+        <f t="shared" si="42"/>
         <v>2365.1999999999998</v>
       </c>
       <c r="BK130">
-        <f xml:space="preserve"> AVERAGE(BK119:BK128)</f>
+        <f t="shared" si="42"/>
         <v>7135</v>
       </c>
       <c r="BL130">
-        <f xml:space="preserve"> AVERAGE(BL119:BL128)</f>
+        <f t="shared" si="42"/>
         <v>512.70000000000005</v>
       </c>
       <c r="BM130">
-        <f xml:space="preserve"> AVERAGE(BM119:BM128)</f>
+        <f t="shared" si="42"/>
         <v>282</v>
       </c>
       <c r="BN130">
-        <f xml:space="preserve"> AVERAGE(BN119:BN128)</f>
+        <f t="shared" si="42"/>
         <v>3926723.4</v>
       </c>
       <c r="BP130">
-        <f xml:space="preserve"> AVERAGE(BP119:BP128)</f>
+        <f t="shared" ref="BP130:BU130" si="43" xml:space="preserve"> AVERAGE(BP119:BP128)</f>
         <v>10838.9</v>
       </c>
       <c r="BQ130">
-        <f xml:space="preserve"> AVERAGE(BQ119:BQ128)</f>
+        <f t="shared" si="43"/>
         <v>3101.6</v>
       </c>
       <c r="BR130">
-        <f xml:space="preserve"> AVERAGE(BR119:BR128)</f>
+        <f t="shared" si="43"/>
         <v>7703.4</v>
       </c>
       <c r="BS130">
-        <f xml:space="preserve"> AVERAGE(BS119:BS128)</f>
+        <f t="shared" si="43"/>
         <v>16.899999999999999</v>
       </c>
       <c r="BT130">
-        <f xml:space="preserve"> AVERAGE(BT119:BT128)</f>
+        <f t="shared" si="43"/>
         <v>17</v>
       </c>
       <c r="BU130">
-        <f xml:space="preserve"> AVERAGE(BU119:BU128)</f>
+        <f t="shared" si="43"/>
         <v>4407129.5999999996</v>
       </c>
       <c r="BW130">
-        <f xml:space="preserve"> AVERAGE(BW119:BW128)</f>
+        <f t="shared" ref="BW130:CB130" si="44" xml:space="preserve"> AVERAGE(BW119:BW128)</f>
         <v>11782.4</v>
       </c>
       <c r="BX130">
-        <f xml:space="preserve"> AVERAGE(BX119:BX128)</f>
+        <f t="shared" si="44"/>
         <v>3297.6</v>
       </c>
       <c r="BY130">
-        <f xml:space="preserve"> AVERAGE(BY119:BY128)</f>
+        <f t="shared" si="44"/>
         <v>8468.9</v>
       </c>
       <c r="BZ130">
-        <f xml:space="preserve"> AVERAGE(BZ119:BZ128)</f>
+        <f t="shared" si="44"/>
         <v>9.6</v>
       </c>
       <c r="CA130">
-        <f xml:space="preserve"> AVERAGE(CA119:CA128)</f>
+        <f t="shared" si="44"/>
         <v>6.3</v>
       </c>
       <c r="CB130">
-        <f xml:space="preserve"> AVERAGE(CB119:CB128)</f>
+        <f t="shared" si="44"/>
         <v>4912738.2</v>
       </c>
     </row>
-    <row r="131" spans="5:80" x14ac:dyDescent="0.35">
-      <c r="I131">
-        <f>SUM(H130:I130)</f>
-        <v>20.100000000000001</v>
-      </c>
+    <row r="131" spans="5:80" x14ac:dyDescent="0.25">
       <c r="P131">
         <f>SUM(O130:P130)</f>
         <v>130.30000000000001</v>
@@ -11148,12 +11135,609 @@
         <v>15.899999999999999</v>
       </c>
     </row>
+    <row r="138" spans="5:80" x14ac:dyDescent="0.25">
+      <c r="E138" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F138" s="2"/>
+      <c r="G138" s="2"/>
+      <c r="H138" s="2"/>
+      <c r="I138" s="2"/>
+      <c r="J138" s="2"/>
+    </row>
+    <row r="140" spans="5:80" x14ac:dyDescent="0.25">
+      <c r="E140" t="s">
+        <v>37</v>
+      </c>
+      <c r="L140" t="s">
+        <v>38</v>
+      </c>
+      <c r="S140" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="T140" s="1"/>
+      <c r="U140" s="1"/>
+      <c r="V140" s="1"/>
+      <c r="W140" s="1"/>
+      <c r="X140" s="1"/>
+    </row>
+    <row r="141" spans="5:80" x14ac:dyDescent="0.25">
+      <c r="E141" t="s">
+        <v>2</v>
+      </c>
+      <c r="F141" t="s">
+        <v>3</v>
+      </c>
+      <c r="G141" t="s">
+        <v>4</v>
+      </c>
+      <c r="H141" t="s">
+        <v>5</v>
+      </c>
+      <c r="I141" t="s">
+        <v>6</v>
+      </c>
+      <c r="J141" t="s">
+        <v>7</v>
+      </c>
+      <c r="L141" t="s">
+        <v>2</v>
+      </c>
+      <c r="M141" t="s">
+        <v>3</v>
+      </c>
+      <c r="N141" t="s">
+        <v>4</v>
+      </c>
+      <c r="O141" t="s">
+        <v>5</v>
+      </c>
+      <c r="P141" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q141" t="s">
+        <v>7</v>
+      </c>
+      <c r="S141" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="T141" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="U141" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="V141" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="W141" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="X141" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="142" spans="5:80" x14ac:dyDescent="0.25">
+      <c r="E142">
+        <v>2802</v>
+      </c>
+      <c r="F142">
+        <v>588</v>
+      </c>
+      <c r="G142">
+        <v>2169</v>
+      </c>
+      <c r="H142">
+        <v>23</v>
+      </c>
+      <c r="I142">
+        <v>22</v>
+      </c>
+      <c r="J142">
+        <v>920304</v>
+      </c>
+      <c r="L142">
+        <v>2975</v>
+      </c>
+      <c r="M142">
+        <v>588</v>
+      </c>
+      <c r="N142">
+        <v>2347</v>
+      </c>
+      <c r="O142">
+        <v>20</v>
+      </c>
+      <c r="P142">
+        <v>20</v>
+      </c>
+      <c r="Q142">
+        <v>920304</v>
+      </c>
+      <c r="S142" s="1"/>
+      <c r="T142" s="1"/>
+      <c r="U142" s="1"/>
+      <c r="V142" s="1"/>
+      <c r="W142" s="1"/>
+      <c r="X142" s="1"/>
+    </row>
+    <row r="143" spans="5:80" x14ac:dyDescent="0.25">
+      <c r="E143">
+        <v>2895</v>
+      </c>
+      <c r="F143">
+        <v>1120</v>
+      </c>
+      <c r="G143">
+        <v>1765</v>
+      </c>
+      <c r="H143">
+        <v>0</v>
+      </c>
+      <c r="I143">
+        <v>10</v>
+      </c>
+      <c r="J143">
+        <v>851760</v>
+      </c>
+      <c r="L143">
+        <v>2610</v>
+      </c>
+      <c r="M143">
+        <v>1110</v>
+      </c>
+      <c r="N143">
+        <v>1480</v>
+      </c>
+      <c r="O143">
+        <v>10</v>
+      </c>
+      <c r="P143">
+        <v>10</v>
+      </c>
+      <c r="Q143">
+        <v>851760</v>
+      </c>
+      <c r="S143" s="1"/>
+      <c r="T143" s="1"/>
+      <c r="U143" s="1"/>
+      <c r="V143" s="1"/>
+      <c r="W143" s="1"/>
+      <c r="X143" s="1"/>
+    </row>
+    <row r="144" spans="5:80" x14ac:dyDescent="0.25">
+      <c r="E144">
+        <v>2930</v>
+      </c>
+      <c r="F144">
+        <v>450</v>
+      </c>
+      <c r="G144">
+        <v>2410</v>
+      </c>
+      <c r="H144">
+        <v>20</v>
+      </c>
+      <c r="I144">
+        <v>50</v>
+      </c>
+      <c r="J144">
+        <v>920304</v>
+      </c>
+      <c r="L144">
+        <v>2911</v>
+      </c>
+      <c r="M144">
+        <v>441</v>
+      </c>
+      <c r="N144">
+        <v>2400</v>
+      </c>
+      <c r="O144">
+        <v>20</v>
+      </c>
+      <c r="P144">
+        <v>50</v>
+      </c>
+      <c r="Q144">
+        <v>920304</v>
+      </c>
+      <c r="S144" s="1"/>
+      <c r="T144" s="1"/>
+      <c r="U144" s="1"/>
+      <c r="V144" s="1"/>
+      <c r="W144" s="1"/>
+      <c r="X144" s="1"/>
+    </row>
+    <row r="145" spans="5:24" x14ac:dyDescent="0.25">
+      <c r="E145">
+        <v>3580</v>
+      </c>
+      <c r="F145">
+        <v>500</v>
+      </c>
+      <c r="G145">
+        <v>3030</v>
+      </c>
+      <c r="H145">
+        <v>10</v>
+      </c>
+      <c r="I145">
+        <v>40</v>
+      </c>
+      <c r="J145">
+        <v>1003968</v>
+      </c>
+      <c r="L145">
+        <v>3350</v>
+      </c>
+      <c r="M145">
+        <v>510</v>
+      </c>
+      <c r="N145">
+        <v>2790</v>
+      </c>
+      <c r="O145">
+        <v>10</v>
+      </c>
+      <c r="P145">
+        <v>40</v>
+      </c>
+      <c r="Q145">
+        <v>1003968</v>
+      </c>
+      <c r="S145" s="1"/>
+      <c r="T145" s="1"/>
+      <c r="U145" s="1"/>
+      <c r="V145" s="1"/>
+      <c r="W145" s="1"/>
+      <c r="X145" s="1"/>
+    </row>
+    <row r="146" spans="5:24" x14ac:dyDescent="0.25">
+      <c r="E146">
+        <v>3801</v>
+      </c>
+      <c r="F146">
+        <v>481</v>
+      </c>
+      <c r="G146">
+        <v>3000</v>
+      </c>
+      <c r="H146">
+        <v>320</v>
+      </c>
+      <c r="I146">
+        <v>0</v>
+      </c>
+      <c r="J146">
+        <v>1009944</v>
+      </c>
+      <c r="L146">
+        <v>3261</v>
+      </c>
+      <c r="M146">
+        <v>461</v>
+      </c>
+      <c r="N146">
+        <v>2480</v>
+      </c>
+      <c r="O146">
+        <v>320</v>
+      </c>
+      <c r="P146">
+        <v>0</v>
+      </c>
+      <c r="Q146">
+        <v>1009944</v>
+      </c>
+      <c r="S146" s="1"/>
+      <c r="T146" s="1"/>
+      <c r="U146" s="1"/>
+      <c r="V146" s="1"/>
+      <c r="W146" s="1"/>
+      <c r="X146" s="1"/>
+    </row>
+    <row r="147" spans="5:24" x14ac:dyDescent="0.25">
+      <c r="E147">
+        <v>2311</v>
+      </c>
+      <c r="F147">
+        <v>421</v>
+      </c>
+      <c r="G147">
+        <v>1850</v>
+      </c>
+      <c r="H147">
+        <v>20</v>
+      </c>
+      <c r="I147">
+        <v>20</v>
+      </c>
+      <c r="J147">
+        <v>997920</v>
+      </c>
+      <c r="L147">
+        <v>2142</v>
+      </c>
+      <c r="M147">
+        <v>432</v>
+      </c>
+      <c r="N147">
+        <v>1660</v>
+      </c>
+      <c r="O147">
+        <v>30</v>
+      </c>
+      <c r="P147">
+        <v>20</v>
+      </c>
+      <c r="Q147">
+        <v>997920</v>
+      </c>
+      <c r="S147" s="1"/>
+      <c r="T147" s="1"/>
+      <c r="U147" s="1"/>
+      <c r="V147" s="1"/>
+      <c r="W147" s="1"/>
+      <c r="X147" s="1"/>
+    </row>
+    <row r="148" spans="5:24" x14ac:dyDescent="0.25">
+      <c r="E148">
+        <v>4122</v>
+      </c>
+      <c r="F148">
+        <v>342</v>
+      </c>
+      <c r="G148">
+        <v>3750</v>
+      </c>
+      <c r="H148">
+        <v>20</v>
+      </c>
+      <c r="I148">
+        <v>10</v>
+      </c>
+      <c r="J148">
+        <v>1010016</v>
+      </c>
+      <c r="L148">
+        <v>4272</v>
+      </c>
+      <c r="M148">
+        <v>362</v>
+      </c>
+      <c r="N148">
+        <v>3870</v>
+      </c>
+      <c r="O148">
+        <v>30</v>
+      </c>
+      <c r="P148">
+        <v>10</v>
+      </c>
+      <c r="Q148">
+        <v>1010016</v>
+      </c>
+      <c r="S148" s="1"/>
+      <c r="T148" s="1"/>
+      <c r="U148" s="1"/>
+      <c r="V148" s="1"/>
+      <c r="W148" s="1"/>
+      <c r="X148" s="1"/>
+    </row>
+    <row r="149" spans="5:24" x14ac:dyDescent="0.25">
+      <c r="E149">
+        <v>4011</v>
+      </c>
+      <c r="F149">
+        <v>371</v>
+      </c>
+      <c r="G149">
+        <v>3620</v>
+      </c>
+      <c r="H149">
+        <v>10</v>
+      </c>
+      <c r="I149">
+        <v>10</v>
+      </c>
+      <c r="J149">
+        <v>1016028</v>
+      </c>
+      <c r="L149">
+        <v>3972</v>
+      </c>
+      <c r="M149">
+        <v>382</v>
+      </c>
+      <c r="N149">
+        <v>3560</v>
+      </c>
+      <c r="O149">
+        <v>10</v>
+      </c>
+      <c r="P149">
+        <v>20</v>
+      </c>
+      <c r="Q149">
+        <v>1016028</v>
+      </c>
+      <c r="S149" s="1"/>
+      <c r="T149" s="1"/>
+      <c r="U149" s="1"/>
+      <c r="V149" s="1"/>
+      <c r="W149" s="1"/>
+      <c r="X149" s="1"/>
+    </row>
+    <row r="150" spans="5:24" x14ac:dyDescent="0.25">
+      <c r="E150">
+        <v>2292</v>
+      </c>
+      <c r="F150">
+        <v>432</v>
+      </c>
+      <c r="G150">
+        <v>1770</v>
+      </c>
+      <c r="H150">
+        <v>20</v>
+      </c>
+      <c r="I150">
+        <v>70</v>
+      </c>
+      <c r="J150">
+        <v>1022112</v>
+      </c>
+      <c r="L150">
+        <v>1912</v>
+      </c>
+      <c r="M150">
+        <v>342</v>
+      </c>
+      <c r="N150">
+        <v>1480</v>
+      </c>
+      <c r="O150">
+        <v>30</v>
+      </c>
+      <c r="P150">
+        <v>60</v>
+      </c>
+      <c r="Q150">
+        <v>1022112</v>
+      </c>
+      <c r="S150" s="1"/>
+      <c r="T150" s="1"/>
+      <c r="U150" s="1"/>
+      <c r="V150" s="1"/>
+      <c r="W150" s="1"/>
+      <c r="X150" s="1"/>
+    </row>
+    <row r="151" spans="5:24" x14ac:dyDescent="0.25">
+      <c r="E151">
+        <v>4062</v>
+      </c>
+      <c r="F151">
+        <v>312</v>
+      </c>
+      <c r="G151">
+        <v>3640</v>
+      </c>
+      <c r="H151">
+        <v>90</v>
+      </c>
+      <c r="I151">
+        <v>20</v>
+      </c>
+      <c r="J151">
+        <v>936936</v>
+      </c>
+      <c r="L151">
+        <v>3992</v>
+      </c>
+      <c r="M151">
+        <v>312</v>
+      </c>
+      <c r="N151">
+        <v>3580</v>
+      </c>
+      <c r="O151">
+        <v>80</v>
+      </c>
+      <c r="P151">
+        <v>20</v>
+      </c>
+      <c r="Q151">
+        <v>936936</v>
+      </c>
+      <c r="S151" s="1"/>
+      <c r="T151" s="1"/>
+      <c r="U151" s="1"/>
+      <c r="V151" s="1"/>
+      <c r="W151" s="1"/>
+      <c r="X151" s="1"/>
+    </row>
+    <row r="152" spans="5:24" x14ac:dyDescent="0.25">
+      <c r="S152" s="1"/>
+      <c r="T152" s="1"/>
+      <c r="U152" s="1"/>
+      <c r="V152" s="1"/>
+      <c r="W152" s="1"/>
+      <c r="X152" s="1"/>
+    </row>
+    <row r="153" spans="5:24" x14ac:dyDescent="0.25">
+      <c r="E153">
+        <f t="shared" ref="E153:J153" si="45" xml:space="preserve"> AVERAGE(E142:E151)</f>
+        <v>3280.6</v>
+      </c>
+      <c r="F153">
+        <f t="shared" si="45"/>
+        <v>501.7</v>
+      </c>
+      <c r="G153">
+        <f t="shared" si="45"/>
+        <v>2700.4</v>
+      </c>
+      <c r="H153">
+        <f t="shared" si="45"/>
+        <v>53.3</v>
+      </c>
+      <c r="I153">
+        <f t="shared" si="45"/>
+        <v>25.2</v>
+      </c>
+      <c r="J153">
+        <f t="shared" si="45"/>
+        <v>968929.2</v>
+      </c>
+      <c r="L153">
+        <f t="shared" ref="L153:Q153" si="46" xml:space="preserve"> AVERAGE(L142:L151)</f>
+        <v>3139.7</v>
+      </c>
+      <c r="M153">
+        <f t="shared" si="46"/>
+        <v>494</v>
+      </c>
+      <c r="N153">
+        <f t="shared" si="46"/>
+        <v>2564.6999999999998</v>
+      </c>
+      <c r="O153">
+        <f t="shared" si="46"/>
+        <v>56</v>
+      </c>
+      <c r="P153">
+        <f t="shared" si="46"/>
+        <v>25</v>
+      </c>
+      <c r="Q153">
+        <f t="shared" si="46"/>
+        <v>968929.2</v>
+      </c>
+      <c r="S153" s="1"/>
+      <c r="T153" s="1"/>
+      <c r="U153" s="1"/>
+      <c r="V153" s="1"/>
+      <c r="W153" s="1"/>
+      <c r="X153" s="1"/>
+    </row>
+    <row r="154" spans="5:24" x14ac:dyDescent="0.25">
+      <c r="I154">
+        <f>SUM(H153:I153)</f>
+        <v>78.5</v>
+      </c>
+      <c r="P154">
+        <f>SUM(O153:P153)</f>
+        <v>81</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="E115:J115"/>
     <mergeCell ref="E3:J3"/>
     <mergeCell ref="E26:J26"/>
     <mergeCell ref="E48:J48"/>
+    <mergeCell ref="E138:J138"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/risultati-firewall-analysis.xlsx
+++ b/risultati-firewall-analysis.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simob\OneDrive\Desktop\firewall-analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Desktop\firewall-analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5CA5A55-E064-41CB-94ED-9304B45F38EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E4861B5-E640-4E2B-97D1-26455784072E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="41">
   <si>
     <t>Variazione porte. Caso base: 200 nrules, 40 anomalies, 0.5 proto</t>
   </si>
@@ -156,6 +156,9 @@
   </si>
   <si>
     <t>ALLOW FIRST</t>
+  </si>
+  <si>
+    <t>354 nrules, 118 anoma</t>
   </si>
 </sst>
 </file>
@@ -485,24 +488,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="E3:CB154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G135" zoomScale="77" workbookViewId="0">
-      <selection activeCell="Q153" sqref="Q153"/>
+    <sheetView tabSelected="1" topLeftCell="AQ87" zoomScale="77" workbookViewId="0">
+      <selection activeCell="BF110" sqref="BF110"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.81640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" customWidth="1"/>
-    <col min="21" max="21" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.453125" customWidth="1"/>
+    <col min="21" max="21" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="10.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="5:80" x14ac:dyDescent="0.25">
+    <row r="3" spans="5:80" x14ac:dyDescent="0.35">
       <c r="E3" s="2" t="s">
         <v>0</v>
       </c>
@@ -512,7 +515,7 @@
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
-    <row r="5" spans="5:80" x14ac:dyDescent="0.25">
+    <row r="5" spans="5:80" x14ac:dyDescent="0.35">
       <c r="E5" t="s">
         <v>1</v>
       </c>
@@ -552,7 +555,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="5:80" x14ac:dyDescent="0.25">
+    <row r="6" spans="5:80" x14ac:dyDescent="0.35">
       <c r="E6" t="s">
         <v>2</v>
       </c>
@@ -752,7 +755,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="5:80" x14ac:dyDescent="0.25">
+    <row r="7" spans="5:80" x14ac:dyDescent="0.35">
       <c r="E7">
         <v>387</v>
       </c>
@@ -952,7 +955,7 @@
         <v>1254960</v>
       </c>
     </row>
-    <row r="8" spans="5:80" x14ac:dyDescent="0.25">
+    <row r="8" spans="5:80" x14ac:dyDescent="0.35">
       <c r="E8">
         <v>320</v>
       </c>
@@ -1152,7 +1155,7 @@
         <v>1277640</v>
       </c>
     </row>
-    <row r="9" spans="5:80" x14ac:dyDescent="0.25">
+    <row r="9" spans="5:80" x14ac:dyDescent="0.35">
       <c r="E9">
         <v>246</v>
       </c>
@@ -1352,7 +1355,7 @@
         <v>1254960</v>
       </c>
     </row>
-    <row r="10" spans="5:80" x14ac:dyDescent="0.25">
+    <row r="10" spans="5:80" x14ac:dyDescent="0.35">
       <c r="E10">
         <v>182</v>
       </c>
@@ -1552,7 +1555,7 @@
         <v>1254960</v>
       </c>
     </row>
-    <row r="11" spans="5:80" x14ac:dyDescent="0.25">
+    <row r="11" spans="5:80" x14ac:dyDescent="0.35">
       <c r="E11">
         <v>231</v>
       </c>
@@ -1752,7 +1755,7 @@
         <v>1262430</v>
       </c>
     </row>
-    <row r="12" spans="5:80" x14ac:dyDescent="0.25">
+    <row r="12" spans="5:80" x14ac:dyDescent="0.35">
       <c r="E12">
         <v>196</v>
       </c>
@@ -1952,7 +1955,7 @@
         <v>1247400</v>
       </c>
     </row>
-    <row r="13" spans="5:80" x14ac:dyDescent="0.25">
+    <row r="13" spans="5:80" x14ac:dyDescent="0.35">
       <c r="E13">
         <v>224</v>
       </c>
@@ -2152,7 +2155,7 @@
         <v>1262520</v>
       </c>
     </row>
-    <row r="14" spans="5:80" x14ac:dyDescent="0.25">
+    <row r="14" spans="5:80" x14ac:dyDescent="0.35">
       <c r="E14">
         <v>253</v>
       </c>
@@ -2352,7 +2355,7 @@
         <v>1270035</v>
       </c>
     </row>
-    <row r="15" spans="5:80" x14ac:dyDescent="0.25">
+    <row r="15" spans="5:80" x14ac:dyDescent="0.35">
       <c r="E15">
         <v>141</v>
       </c>
@@ -2552,7 +2555,7 @@
         <v>1277640</v>
       </c>
     </row>
-    <row r="16" spans="5:80" x14ac:dyDescent="0.25">
+    <row r="16" spans="5:80" x14ac:dyDescent="0.35">
       <c r="E16">
         <v>238</v>
       </c>
@@ -2752,7 +2755,7 @@
         <v>1277640</v>
       </c>
     </row>
-    <row r="18" spans="5:80" x14ac:dyDescent="0.25">
+    <row r="18" spans="5:80" x14ac:dyDescent="0.35">
       <c r="E18">
         <f t="shared" ref="E18:J18" si="0" xml:space="preserve"> AVERAGE(E7:E16)</f>
         <v>241.8</v>
@@ -3018,7 +3021,7 @@
         <v>1264018.5</v>
       </c>
     </row>
-    <row r="19" spans="5:80" x14ac:dyDescent="0.25">
+    <row r="19" spans="5:80" x14ac:dyDescent="0.35">
       <c r="I19">
         <f xml:space="preserve"> SUM(H18:I18)</f>
         <v>15</v>
@@ -3064,7 +3067,7 @@
         <v>20.299999999999997</v>
       </c>
     </row>
-    <row r="26" spans="5:80" x14ac:dyDescent="0.25">
+    <row r="26" spans="5:80" x14ac:dyDescent="0.35">
       <c r="E26" s="2" t="s">
         <v>18</v>
       </c>
@@ -3074,7 +3077,7 @@
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
     </row>
-    <row r="28" spans="5:80" x14ac:dyDescent="0.25">
+    <row r="28" spans="5:80" x14ac:dyDescent="0.35">
       <c r="E28" t="s">
         <v>1</v>
       </c>
@@ -3094,7 +3097,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="5:80" x14ac:dyDescent="0.25">
+    <row r="29" spans="5:80" x14ac:dyDescent="0.35">
       <c r="E29" t="s">
         <v>2</v>
       </c>
@@ -3204,7 +3207,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="5:80" x14ac:dyDescent="0.25">
+    <row r="30" spans="5:80" x14ac:dyDescent="0.35">
       <c r="E30">
         <v>824</v>
       </c>
@@ -3314,7 +3317,7 @@
         <v>613536</v>
       </c>
     </row>
-    <row r="31" spans="5:80" x14ac:dyDescent="0.25">
+    <row r="31" spans="5:80" x14ac:dyDescent="0.35">
       <c r="E31">
         <v>695</v>
       </c>
@@ -3424,7 +3427,7 @@
         <v>567840</v>
       </c>
     </row>
-    <row r="32" spans="5:80" x14ac:dyDescent="0.25">
+    <row r="32" spans="5:80" x14ac:dyDescent="0.35">
       <c r="E32">
         <v>717</v>
       </c>
@@ -3534,7 +3537,7 @@
         <v>613536</v>
       </c>
     </row>
-    <row r="33" spans="5:45" x14ac:dyDescent="0.25">
+    <row r="33" spans="5:45" x14ac:dyDescent="0.35">
       <c r="E33">
         <v>1410</v>
       </c>
@@ -3644,7 +3647,7 @@
         <v>669312</v>
       </c>
     </row>
-    <row r="34" spans="5:45" x14ac:dyDescent="0.25">
+    <row r="34" spans="5:45" x14ac:dyDescent="0.35">
       <c r="E34">
         <v>1101</v>
       </c>
@@ -3754,7 +3757,7 @@
         <v>673296</v>
       </c>
     </row>
-    <row r="35" spans="5:45" x14ac:dyDescent="0.25">
+    <row r="35" spans="5:45" x14ac:dyDescent="0.35">
       <c r="E35">
         <v>1219</v>
       </c>
@@ -3864,7 +3867,7 @@
         <v>665280</v>
       </c>
     </row>
-    <row r="36" spans="5:45" x14ac:dyDescent="0.25">
+    <row r="36" spans="5:45" x14ac:dyDescent="0.35">
       <c r="E36">
         <v>1345</v>
       </c>
@@ -3974,7 +3977,7 @@
         <v>673344</v>
       </c>
     </row>
-    <row r="37" spans="5:45" x14ac:dyDescent="0.25">
+    <row r="37" spans="5:45" x14ac:dyDescent="0.35">
       <c r="E37">
         <v>1423</v>
       </c>
@@ -4084,7 +4087,7 @@
         <v>677352</v>
       </c>
     </row>
-    <row r="38" spans="5:45" x14ac:dyDescent="0.25">
+    <row r="38" spans="5:45" x14ac:dyDescent="0.35">
       <c r="E38">
         <v>1387</v>
       </c>
@@ -4194,7 +4197,7 @@
         <v>681408</v>
       </c>
     </row>
-    <row r="39" spans="5:45" x14ac:dyDescent="0.25">
+    <row r="39" spans="5:45" x14ac:dyDescent="0.35">
       <c r="E39">
         <v>1157</v>
       </c>
@@ -4304,7 +4307,7 @@
         <v>624624</v>
       </c>
     </row>
-    <row r="41" spans="5:45" x14ac:dyDescent="0.25">
+    <row r="41" spans="5:45" x14ac:dyDescent="0.35">
       <c r="E41">
         <f t="shared" ref="E41:J41" si="11" xml:space="preserve"> AVERAGE(E30:E39)</f>
         <v>1127.8</v>
@@ -4450,7 +4453,7 @@
         <v>645952.80000000005</v>
       </c>
     </row>
-    <row r="42" spans="5:45" x14ac:dyDescent="0.25">
+    <row r="42" spans="5:45" x14ac:dyDescent="0.35">
       <c r="I42">
         <f xml:space="preserve"> SUM(H41:I41)</f>
         <v>69.599999999999994</v>
@@ -4476,7 +4479,7 @@
         <v>93.699999999999989</v>
       </c>
     </row>
-    <row r="48" spans="5:45" x14ac:dyDescent="0.25">
+    <row r="48" spans="5:45" x14ac:dyDescent="0.35">
       <c r="E48" s="2" t="s">
         <v>19</v>
       </c>
@@ -4486,7 +4489,7 @@
       <c r="I48" s="2"/>
       <c r="J48" s="2"/>
     </row>
-    <row r="50" spans="5:45" x14ac:dyDescent="0.25">
+    <row r="50" spans="5:45" x14ac:dyDescent="0.35">
       <c r="E50">
         <v>0</v>
       </c>
@@ -4511,7 +4514,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="51" spans="5:45" x14ac:dyDescent="0.25">
+    <row r="51" spans="5:45" x14ac:dyDescent="0.35">
       <c r="E51" t="s">
         <v>2</v>
       </c>
@@ -4621,7 +4624,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="52" spans="5:45" x14ac:dyDescent="0.25">
+    <row r="52" spans="5:45" x14ac:dyDescent="0.35">
       <c r="E52">
         <v>4184</v>
       </c>
@@ -4719,7 +4722,7 @@
         <v>412020</v>
       </c>
     </row>
-    <row r="53" spans="5:45" x14ac:dyDescent="0.25">
+    <row r="53" spans="5:45" x14ac:dyDescent="0.35">
       <c r="E53">
         <v>4166</v>
       </c>
@@ -4817,7 +4820,7 @@
         <v>337080</v>
       </c>
     </row>
-    <row r="54" spans="5:45" x14ac:dyDescent="0.25">
+    <row r="54" spans="5:45" x14ac:dyDescent="0.35">
       <c r="E54">
         <v>5271</v>
       </c>
@@ -4915,7 +4918,7 @@
         <v>392073</v>
       </c>
     </row>
-    <row r="55" spans="5:45" x14ac:dyDescent="0.25">
+    <row r="55" spans="5:45" x14ac:dyDescent="0.35">
       <c r="E55">
         <v>4095</v>
       </c>
@@ -5013,7 +5016,7 @@
         <v>416016</v>
       </c>
     </row>
-    <row r="56" spans="5:45" x14ac:dyDescent="0.25">
+    <row r="56" spans="5:45" x14ac:dyDescent="0.35">
       <c r="E56">
         <v>2683</v>
       </c>
@@ -5111,7 +5114,7 @@
         <v>374220</v>
       </c>
     </row>
-    <row r="57" spans="5:45" x14ac:dyDescent="0.25">
+    <row r="57" spans="5:45" x14ac:dyDescent="0.35">
       <c r="E57">
         <v>5409</v>
       </c>
@@ -5209,7 +5212,7 @@
         <v>374286</v>
       </c>
     </row>
-    <row r="58" spans="5:45" x14ac:dyDescent="0.25">
+    <row r="58" spans="5:45" x14ac:dyDescent="0.35">
       <c r="E58">
         <v>4920</v>
       </c>
@@ -5307,7 +5310,7 @@
         <v>416016</v>
       </c>
     </row>
-    <row r="59" spans="5:45" x14ac:dyDescent="0.25">
+    <row r="59" spans="5:45" x14ac:dyDescent="0.35">
       <c r="E59">
         <v>2494</v>
       </c>
@@ -5405,7 +5408,7 @@
         <v>381348</v>
       </c>
     </row>
-    <row r="60" spans="5:45" x14ac:dyDescent="0.25">
+    <row r="60" spans="5:45" x14ac:dyDescent="0.35">
       <c r="E60">
         <v>4670</v>
       </c>
@@ -5503,7 +5506,7 @@
         <v>374286</v>
       </c>
     </row>
-    <row r="61" spans="5:45" x14ac:dyDescent="0.25">
+    <row r="61" spans="5:45" x14ac:dyDescent="0.35">
       <c r="E61">
         <v>4166</v>
       </c>
@@ -5601,7 +5604,7 @@
         <v>392040</v>
       </c>
     </row>
-    <row r="62" spans="5:45" x14ac:dyDescent="0.25">
+    <row r="62" spans="5:45" x14ac:dyDescent="0.35">
       <c r="S62" s="1"/>
       <c r="T62" s="1"/>
       <c r="U62" s="1"/>
@@ -5609,7 +5612,7 @@
       <c r="W62" s="1"/>
       <c r="X62" s="1"/>
     </row>
-    <row r="63" spans="5:45" x14ac:dyDescent="0.25">
+    <row r="63" spans="5:45" x14ac:dyDescent="0.35">
       <c r="E63">
         <f t="shared" ref="E63:J63" si="17" xml:space="preserve"> AVERAGE(E52:E61)</f>
         <v>4205.8</v>
@@ -5737,7 +5740,7 @@
         <v>386938.5</v>
       </c>
     </row>
-    <row r="64" spans="5:45" x14ac:dyDescent="0.25">
+    <row r="64" spans="5:45" x14ac:dyDescent="0.35">
       <c r="I64">
         <f>SUM(H63:I63)</f>
         <v>2.7</v>
@@ -5759,12 +5762,12 @@
         <v>239.8</v>
       </c>
     </row>
-    <row r="70" spans="5:38" x14ac:dyDescent="0.25">
+    <row r="70" spans="5:38" x14ac:dyDescent="0.35">
       <c r="E70" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="72" spans="5:38" x14ac:dyDescent="0.25">
+    <row r="72" spans="5:38" x14ac:dyDescent="0.35">
       <c r="E72" t="s">
         <v>21</v>
       </c>
@@ -5781,7 +5784,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="73" spans="5:38" x14ac:dyDescent="0.25">
+    <row r="73" spans="5:38" x14ac:dyDescent="0.35">
       <c r="E73" t="s">
         <v>2</v>
       </c>
@@ -5873,7 +5876,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="74" spans="5:38" x14ac:dyDescent="0.25">
+    <row r="74" spans="5:38" x14ac:dyDescent="0.35">
       <c r="E74">
         <v>365</v>
       </c>
@@ -5965,7 +5968,7 @@
         <v>4063500</v>
       </c>
     </row>
-    <row r="75" spans="5:38" x14ac:dyDescent="0.25">
+    <row r="75" spans="5:38" x14ac:dyDescent="0.35">
       <c r="E75">
         <v>204</v>
       </c>
@@ -6057,7 +6060,7 @@
         <v>4117500</v>
       </c>
     </row>
-    <row r="76" spans="5:38" x14ac:dyDescent="0.25">
+    <row r="76" spans="5:38" x14ac:dyDescent="0.35">
       <c r="E76">
         <v>180</v>
       </c>
@@ -6149,7 +6152,7 @@
         <v>4158675</v>
       </c>
     </row>
-    <row r="77" spans="5:38" x14ac:dyDescent="0.25">
+    <row r="77" spans="5:38" x14ac:dyDescent="0.35">
       <c r="E77">
         <v>132</v>
       </c>
@@ -6241,7 +6244,7 @@
         <v>4077000</v>
       </c>
     </row>
-    <row r="78" spans="5:38" x14ac:dyDescent="0.25">
+    <row r="78" spans="5:38" x14ac:dyDescent="0.35">
       <c r="E78">
         <v>195</v>
       </c>
@@ -6333,7 +6336,7 @@
         <v>4172400</v>
       </c>
     </row>
-    <row r="79" spans="5:38" x14ac:dyDescent="0.25">
+    <row r="79" spans="5:38" x14ac:dyDescent="0.35">
       <c r="E79">
         <v>133</v>
       </c>
@@ -6425,7 +6428,7 @@
         <v>4158675</v>
       </c>
     </row>
-    <row r="80" spans="5:38" x14ac:dyDescent="0.25">
+    <row r="80" spans="5:38" x14ac:dyDescent="0.35">
       <c r="E80">
         <v>182</v>
       </c>
@@ -6517,7 +6520,7 @@
         <v>4158720</v>
       </c>
     </row>
-    <row r="81" spans="5:59" x14ac:dyDescent="0.25">
+    <row r="81" spans="5:66" x14ac:dyDescent="0.35">
       <c r="E81">
         <v>136</v>
       </c>
@@ -6609,7 +6612,7 @@
         <v>4117770</v>
       </c>
     </row>
-    <row r="82" spans="5:59" x14ac:dyDescent="0.25">
+    <row r="82" spans="5:66" x14ac:dyDescent="0.35">
       <c r="E82">
         <v>139</v>
       </c>
@@ -6701,7 +6704,7 @@
         <v>4117230</v>
       </c>
     </row>
-    <row r="83" spans="5:59" x14ac:dyDescent="0.25">
+    <row r="83" spans="5:66" x14ac:dyDescent="0.35">
       <c r="E83">
         <v>270</v>
       </c>
@@ -6793,7 +6796,7 @@
         <v>4185945</v>
       </c>
     </row>
-    <row r="85" spans="5:59" x14ac:dyDescent="0.25">
+    <row r="85" spans="5:66" x14ac:dyDescent="0.35">
       <c r="E85">
         <f t="shared" ref="E85:J85" si="22" xml:space="preserve"> AVERAGE(E74:E83)</f>
         <v>193.6</v>
@@ -6915,7 +6918,7 @@
         <v>4132741.5</v>
       </c>
     </row>
-    <row r="86" spans="5:59" x14ac:dyDescent="0.25">
+    <row r="86" spans="5:66" x14ac:dyDescent="0.35">
       <c r="I86">
         <f>SUM(H85:I85)</f>
         <v>31.5</v>
@@ -6937,12 +6940,12 @@
         <v>4806.7</v>
       </c>
     </row>
-    <row r="92" spans="5:59" x14ac:dyDescent="0.25">
+    <row r="92" spans="5:66" x14ac:dyDescent="0.35">
       <c r="E92" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="94" spans="5:59" x14ac:dyDescent="0.25">
+    <row r="94" spans="5:66" x14ac:dyDescent="0.35">
       <c r="E94" t="s">
         <v>27</v>
       </c>
@@ -6967,8 +6970,11 @@
       <c r="BB94" t="s">
         <v>34</v>
       </c>
+      <c r="BI94" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="95" spans="5:59" x14ac:dyDescent="0.25">
+    <row r="95" spans="5:66" x14ac:dyDescent="0.35">
       <c r="E95" t="s">
         <v>2</v>
       </c>
@@ -7113,8 +7119,26 @@
       <c r="BG95" t="s">
         <v>7</v>
       </c>
+      <c r="BI95" t="s">
+        <v>2</v>
+      </c>
+      <c r="BJ95" t="s">
+        <v>3</v>
+      </c>
+      <c r="BK95" t="s">
+        <v>4</v>
+      </c>
+      <c r="BL95" t="s">
+        <v>5</v>
+      </c>
+      <c r="BM95" t="s">
+        <v>6</v>
+      </c>
+      <c r="BN95" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="96" spans="5:59" x14ac:dyDescent="0.25">
+    <row r="96" spans="5:66" x14ac:dyDescent="0.35">
       <c r="E96">
         <v>11</v>
       </c>
@@ -7259,8 +7283,26 @@
       <c r="BG96">
         <v>17019945</v>
       </c>
+      <c r="BI96">
+        <v>27006</v>
+      </c>
+      <c r="BJ96">
+        <v>2433</v>
+      </c>
+      <c r="BK96">
+        <v>11963</v>
+      </c>
+      <c r="BL96">
+        <v>1240</v>
+      </c>
+      <c r="BM96">
+        <v>11370</v>
+      </c>
+      <c r="BN96">
+        <v>2668140</v>
+      </c>
     </row>
-    <row r="97" spans="5:52" x14ac:dyDescent="0.25">
+    <row r="97" spans="5:66" x14ac:dyDescent="0.35">
       <c r="E97">
         <v>5</v>
       </c>
@@ -7387,8 +7429,26 @@
       <c r="AZ97">
         <v>3942720</v>
       </c>
+      <c r="BI97">
+        <v>13890</v>
+      </c>
+      <c r="BJ97">
+        <v>1370</v>
+      </c>
+      <c r="BK97">
+        <v>11770</v>
+      </c>
+      <c r="BL97">
+        <v>170</v>
+      </c>
+      <c r="BM97">
+        <v>580</v>
+      </c>
+      <c r="BN97">
+        <v>2635200</v>
+      </c>
     </row>
-    <row r="98" spans="5:52" x14ac:dyDescent="0.25">
+    <row r="98" spans="5:66" x14ac:dyDescent="0.35">
       <c r="E98">
         <v>2</v>
       </c>
@@ -7515,8 +7575,26 @@
       <c r="AZ98">
         <v>3942720</v>
       </c>
+      <c r="BI98">
+        <v>11020</v>
+      </c>
+      <c r="BJ98">
+        <v>1080</v>
+      </c>
+      <c r="BK98">
+        <v>9130</v>
+      </c>
+      <c r="BL98">
+        <v>810</v>
+      </c>
+      <c r="BM98">
+        <v>0</v>
+      </c>
+      <c r="BN98">
+        <v>2646180</v>
+      </c>
     </row>
-    <row r="99" spans="5:52" x14ac:dyDescent="0.25">
+    <row r="99" spans="5:66" x14ac:dyDescent="0.35">
       <c r="E99">
         <v>10</v>
       </c>
@@ -7643,8 +7721,26 @@
       <c r="AZ99">
         <v>3956040</v>
       </c>
+      <c r="BI99">
+        <v>17970</v>
+      </c>
+      <c r="BJ99">
+        <v>1190</v>
+      </c>
+      <c r="BK99">
+        <v>9300</v>
+      </c>
+      <c r="BL99">
+        <v>1150</v>
+      </c>
+      <c r="BM99">
+        <v>6330</v>
+      </c>
+      <c r="BN99">
+        <v>2657160</v>
+      </c>
     </row>
-    <row r="100" spans="5:52" x14ac:dyDescent="0.25">
+    <row r="100" spans="5:66" x14ac:dyDescent="0.35">
       <c r="E100">
         <v>4</v>
       </c>
@@ -7771,8 +7867,26 @@
       <c r="AZ100">
         <v>3667440</v>
       </c>
+      <c r="BI100">
+        <v>12531</v>
+      </c>
+      <c r="BJ100">
+        <v>1531</v>
+      </c>
+      <c r="BK100">
+        <v>9730</v>
+      </c>
+      <c r="BL100">
+        <v>1270</v>
+      </c>
+      <c r="BM100">
+        <v>0</v>
+      </c>
+      <c r="BN100">
+        <v>2635335</v>
+      </c>
     </row>
-    <row r="101" spans="5:52" x14ac:dyDescent="0.25">
+    <row r="101" spans="5:66" x14ac:dyDescent="0.35">
       <c r="E101">
         <v>4</v>
       </c>
@@ -7899,8 +8013,26 @@
       <c r="AZ101">
         <v>3942675</v>
       </c>
+      <c r="BI101">
+        <v>13932</v>
+      </c>
+      <c r="BJ101">
+        <v>892</v>
+      </c>
+      <c r="BK101">
+        <v>12440</v>
+      </c>
+      <c r="BL101">
+        <v>350</v>
+      </c>
+      <c r="BM101">
+        <v>250</v>
+      </c>
+      <c r="BN101">
+        <v>2469768</v>
+      </c>
     </row>
-    <row r="102" spans="5:52" x14ac:dyDescent="0.25">
+    <row r="102" spans="5:66" x14ac:dyDescent="0.35">
       <c r="E102">
         <v>3</v>
       </c>
@@ -8027,8 +8159,26 @@
       <c r="AZ102">
         <v>3956040</v>
       </c>
+      <c r="BI102">
+        <v>15982</v>
+      </c>
+      <c r="BJ102">
+        <v>1192</v>
+      </c>
+      <c r="BK102">
+        <v>12500</v>
+      </c>
+      <c r="BL102">
+        <v>1780</v>
+      </c>
+      <c r="BM102">
+        <v>510</v>
+      </c>
+      <c r="BN102">
+        <v>2679075</v>
+      </c>
     </row>
-    <row r="103" spans="5:52" x14ac:dyDescent="0.25">
+    <row r="103" spans="5:66" x14ac:dyDescent="0.35">
       <c r="E103">
         <v>2</v>
       </c>
@@ -8155,8 +8305,26 @@
       <c r="AZ103">
         <v>3916080</v>
       </c>
+      <c r="BI103">
+        <v>10552</v>
+      </c>
+      <c r="BJ103">
+        <v>1222</v>
+      </c>
+      <c r="BK103">
+        <v>8860</v>
+      </c>
+      <c r="BL103">
+        <v>350</v>
+      </c>
+      <c r="BM103">
+        <v>120</v>
+      </c>
+      <c r="BN103">
+        <v>2635200</v>
+      </c>
     </row>
-    <row r="104" spans="5:52" x14ac:dyDescent="0.25">
+    <row r="104" spans="5:66" x14ac:dyDescent="0.35">
       <c r="E104">
         <v>3</v>
       </c>
@@ -8283,8 +8451,26 @@
       <c r="AZ104">
         <v>3956040</v>
       </c>
+      <c r="BI104">
+        <v>12851</v>
+      </c>
+      <c r="BJ104">
+        <v>2611</v>
+      </c>
+      <c r="BK104">
+        <v>9490</v>
+      </c>
+      <c r="BL104">
+        <v>750</v>
+      </c>
+      <c r="BM104">
+        <v>0</v>
+      </c>
+      <c r="BN104">
+        <v>2602710</v>
+      </c>
     </row>
-    <row r="105" spans="5:52" x14ac:dyDescent="0.25">
+    <row r="105" spans="5:66" x14ac:dyDescent="0.35">
       <c r="E105">
         <v>3</v>
       </c>
@@ -8411,8 +8597,26 @@
       <c r="AZ105">
         <v>3929400</v>
       </c>
+      <c r="BI105">
+        <v>16972</v>
+      </c>
+      <c r="BJ105">
+        <v>1312</v>
+      </c>
+      <c r="BK105">
+        <v>10050</v>
+      </c>
+      <c r="BL105">
+        <v>410</v>
+      </c>
+      <c r="BM105">
+        <v>5200</v>
+      </c>
+      <c r="BN105">
+        <v>2635200</v>
+      </c>
     </row>
-    <row r="107" spans="5:52" x14ac:dyDescent="0.25">
+    <row r="107" spans="5:66" x14ac:dyDescent="0.35">
       <c r="E107">
         <f t="shared" ref="E107:J107" si="27" xml:space="preserve"> AVERAGE(E96:E105)</f>
         <v>4.7</v>
@@ -8581,8 +8785,32 @@
         <f t="shared" si="33"/>
         <v>3913855.5</v>
       </c>
+      <c r="BI107">
+        <f t="shared" ref="BI107:BN107" si="34" xml:space="preserve"> AVERAGE(BI96:BI105)</f>
+        <v>15270.6</v>
+      </c>
+      <c r="BJ107">
+        <f t="shared" si="34"/>
+        <v>1483.3</v>
+      </c>
+      <c r="BK107">
+        <f t="shared" si="34"/>
+        <v>10523.3</v>
+      </c>
+      <c r="BL107">
+        <f t="shared" si="34"/>
+        <v>828</v>
+      </c>
+      <c r="BM107">
+        <f t="shared" si="34"/>
+        <v>2436</v>
+      </c>
+      <c r="BN107">
+        <f t="shared" si="34"/>
+        <v>2626396.7999999998</v>
+      </c>
     </row>
-    <row r="115" spans="5:80" x14ac:dyDescent="0.25">
+    <row r="115" spans="5:80" x14ac:dyDescent="0.35">
       <c r="E115" s="2" t="s">
         <v>35</v>
       </c>
@@ -8592,7 +8820,7 @@
       <c r="I115" s="2"/>
       <c r="J115" s="2"/>
     </row>
-    <row r="117" spans="5:80" x14ac:dyDescent="0.25">
+    <row r="117" spans="5:80" x14ac:dyDescent="0.35">
       <c r="E117" t="s">
         <v>1</v>
       </c>
@@ -8627,7 +8855,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="118" spans="5:80" x14ac:dyDescent="0.25">
+    <row r="118" spans="5:80" x14ac:dyDescent="0.35">
       <c r="E118" t="s">
         <v>2</v>
       </c>
@@ -8827,7 +9055,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="119" spans="5:80" x14ac:dyDescent="0.25">
+    <row r="119" spans="5:80" x14ac:dyDescent="0.35">
       <c r="E119">
         <v>424</v>
       </c>
@@ -9027,7 +9255,7 @@
         <v>4936176</v>
       </c>
     </row>
-    <row r="120" spans="5:80" x14ac:dyDescent="0.25">
+    <row r="120" spans="5:80" x14ac:dyDescent="0.35">
       <c r="E120">
         <v>280</v>
       </c>
@@ -9227,7 +9455,7 @@
         <v>4855032</v>
       </c>
     </row>
-    <row r="121" spans="5:80" x14ac:dyDescent="0.25">
+    <row r="121" spans="5:80" x14ac:dyDescent="0.35">
       <c r="E121">
         <v>262</v>
       </c>
@@ -9427,7 +9655,7 @@
         <v>5019840</v>
       </c>
     </row>
-    <row r="122" spans="5:80" x14ac:dyDescent="0.25">
+    <row r="122" spans="5:80" x14ac:dyDescent="0.35">
       <c r="E122">
         <v>211</v>
       </c>
@@ -9627,7 +9855,7 @@
         <v>5019840</v>
       </c>
     </row>
-    <row r="123" spans="5:80" x14ac:dyDescent="0.25">
+    <row r="123" spans="5:80" x14ac:dyDescent="0.35">
       <c r="E123">
         <v>249</v>
       </c>
@@ -9827,7 +10055,7 @@
         <v>4881396</v>
       </c>
     </row>
-    <row r="124" spans="5:80" x14ac:dyDescent="0.25">
+    <row r="124" spans="5:80" x14ac:dyDescent="0.35">
       <c r="E124">
         <v>259</v>
       </c>
@@ -10027,7 +10255,7 @@
         <v>4573800</v>
       </c>
     </row>
-    <row r="125" spans="5:80" x14ac:dyDescent="0.25">
+    <row r="125" spans="5:80" x14ac:dyDescent="0.35">
       <c r="E125">
         <v>296</v>
       </c>
@@ -10227,7 +10455,7 @@
         <v>5050080</v>
       </c>
     </row>
-    <row r="126" spans="5:80" x14ac:dyDescent="0.25">
+    <row r="126" spans="5:80" x14ac:dyDescent="0.35">
       <c r="E126">
         <v>218</v>
       </c>
@@ -10427,7 +10655,7 @@
         <v>4910802</v>
       </c>
     </row>
-    <row r="127" spans="5:80" x14ac:dyDescent="0.25">
+    <row r="127" spans="5:80" x14ac:dyDescent="0.35">
       <c r="E127">
         <v>220</v>
       </c>
@@ -10627,7 +10855,7 @@
         <v>4940208</v>
       </c>
     </row>
-    <row r="128" spans="5:80" x14ac:dyDescent="0.25">
+    <row r="128" spans="5:80" x14ac:dyDescent="0.35">
       <c r="E128">
         <v>298</v>
       </c>
@@ -10827,273 +11055,273 @@
         <v>4940208</v>
       </c>
     </row>
-    <row r="130" spans="5:80" x14ac:dyDescent="0.25">
+    <row r="130" spans="5:80" x14ac:dyDescent="0.35">
       <c r="E130">
-        <f t="shared" ref="E130:J130" si="34" xml:space="preserve"> AVERAGE(E119:E128)</f>
+        <f t="shared" ref="E130:J130" si="35" xml:space="preserve"> AVERAGE(E119:E128)</f>
         <v>271.7</v>
       </c>
       <c r="F130">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>36.9</v>
       </c>
       <c r="G130">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>214.7</v>
       </c>
       <c r="H130">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>6.3</v>
       </c>
       <c r="I130">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>13.8</v>
       </c>
       <c r="J130">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>84267.9</v>
       </c>
       <c r="L130">
-        <f t="shared" ref="L130:Q130" si="35" xml:space="preserve"> AVERAGE(L119:L128)</f>
+        <f t="shared" ref="L130:Q130" si="36" xml:space="preserve"> AVERAGE(L119:L128)</f>
         <v>2067.6</v>
       </c>
       <c r="M130">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>248.2</v>
       </c>
       <c r="N130">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>1689.1</v>
       </c>
       <c r="O130">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>47.2</v>
       </c>
       <c r="P130">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>83.1</v>
       </c>
       <c r="Q130">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>488925</v>
       </c>
       <c r="S130">
-        <f t="shared" ref="S130:X130" si="36" xml:space="preserve"> AVERAGE(S119:S128)</f>
+        <f t="shared" ref="S130:X130" si="37" xml:space="preserve"> AVERAGE(S119:S128)</f>
         <v>3624.9</v>
       </c>
       <c r="T130">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>476.3</v>
       </c>
       <c r="U130">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>3012</v>
       </c>
       <c r="V130">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>76.900000000000006</v>
       </c>
       <c r="W130">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>59.7</v>
       </c>
       <c r="X130">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>968929.2</v>
       </c>
       <c r="Z130">
-        <f t="shared" ref="Z130:AE130" si="37" xml:space="preserve"> AVERAGE(Z119:Z128)</f>
+        <f t="shared" ref="Z130:AE130" si="38" xml:space="preserve"> AVERAGE(Z119:Z128)</f>
         <v>5266</v>
       </c>
       <c r="AA130">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>659.1</v>
       </c>
       <c r="AB130">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>4397.1000000000004</v>
       </c>
       <c r="AC130">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>99.8</v>
       </c>
       <c r="AD130">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>110</v>
       </c>
       <c r="AE130">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>1458055.8</v>
       </c>
       <c r="AG130">
-        <f t="shared" ref="AG130:AL130" si="38" xml:space="preserve"> AVERAGE(AG119:AG128)</f>
+        <f t="shared" ref="AG130:AL130" si="39" xml:space="preserve"> AVERAGE(AG119:AG128)</f>
         <v>6221.4</v>
       </c>
       <c r="AH130">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>999.2</v>
       </c>
       <c r="AI130">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>4809.3999999999996</v>
       </c>
       <c r="AJ130">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>128.6</v>
       </c>
       <c r="AK130">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>284.2</v>
       </c>
       <c r="AL130">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>1971676.8</v>
       </c>
       <c r="AN130">
-        <f t="shared" ref="AN130:AS130" si="39" xml:space="preserve"> AVERAGE(AN119:AN128)</f>
+        <f t="shared" ref="AN130:AS130" si="40" xml:space="preserve"> AVERAGE(AN119:AN128)</f>
         <v>7128.5</v>
       </c>
       <c r="AO130">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>1207.5</v>
       </c>
       <c r="AP130">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>5342.2</v>
       </c>
       <c r="AQ130">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>124</v>
       </c>
       <c r="AR130">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>454.8</v>
       </c>
       <c r="AS130">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>2410253.7000000002</v>
       </c>
       <c r="AU130">
-        <f t="shared" ref="AU130:AZ130" si="40" xml:space="preserve"> AVERAGE(AU119:AU128)</f>
+        <f t="shared" ref="AU130:AZ130" si="41" xml:space="preserve"> AVERAGE(AU119:AU128)</f>
         <v>7741.4</v>
       </c>
       <c r="AV130">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>1524.9</v>
       </c>
       <c r="AW130">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>5958.5</v>
       </c>
       <c r="AX130">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>77.099999999999994</v>
       </c>
       <c r="AY130">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>180.8</v>
       </c>
       <c r="AZ130">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>2958044.4</v>
       </c>
       <c r="BB130">
-        <f t="shared" ref="BB130:BG130" si="41" xml:space="preserve"> AVERAGE(BB119:BB128)</f>
+        <f t="shared" ref="BB130:BG130" si="42" xml:space="preserve"> AVERAGE(BB119:BB128)</f>
         <v>8772.2000000000007</v>
       </c>
       <c r="BC130">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>1980.8</v>
       </c>
       <c r="BD130">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>6559.2</v>
       </c>
       <c r="BE130">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>84.2</v>
       </c>
       <c r="BF130">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>148</v>
       </c>
       <c r="BG130">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>3379182.6</v>
       </c>
       <c r="BI130">
-        <f t="shared" ref="BI130:BN130" si="42" xml:space="preserve"> AVERAGE(BI119:BI128)</f>
+        <f t="shared" ref="BI130:BN130" si="43" xml:space="preserve"> AVERAGE(BI119:BI128)</f>
         <v>10294.9</v>
       </c>
       <c r="BJ130">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>2365.1999999999998</v>
       </c>
       <c r="BK130">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>7135</v>
       </c>
       <c r="BL130">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>512.70000000000005</v>
       </c>
       <c r="BM130">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>282</v>
       </c>
       <c r="BN130">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>3926723.4</v>
       </c>
       <c r="BP130">
-        <f t="shared" ref="BP130:BU130" si="43" xml:space="preserve"> AVERAGE(BP119:BP128)</f>
+        <f t="shared" ref="BP130:BU130" si="44" xml:space="preserve"> AVERAGE(BP119:BP128)</f>
         <v>10838.9</v>
       </c>
       <c r="BQ130">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>3101.6</v>
       </c>
       <c r="BR130">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>7703.4</v>
       </c>
       <c r="BS130">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>16.899999999999999</v>
       </c>
       <c r="BT130">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>17</v>
       </c>
       <c r="BU130">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>4407129.5999999996</v>
       </c>
       <c r="BW130">
-        <f t="shared" ref="BW130:CB130" si="44" xml:space="preserve"> AVERAGE(BW119:BW128)</f>
+        <f t="shared" ref="BW130:CB130" si="45" xml:space="preserve"> AVERAGE(BW119:BW128)</f>
         <v>11782.4</v>
       </c>
       <c r="BX130">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>3297.6</v>
       </c>
       <c r="BY130">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>8468.9</v>
       </c>
       <c r="BZ130">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>9.6</v>
       </c>
       <c r="CA130">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>6.3</v>
       </c>
       <c r="CB130">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>4912738.2</v>
       </c>
     </row>
-    <row r="131" spans="5:80" x14ac:dyDescent="0.25">
+    <row r="131" spans="5:80" x14ac:dyDescent="0.35">
       <c r="P131">
         <f>SUM(O130:P130)</f>
         <v>130.30000000000001</v>
@@ -11135,7 +11363,7 @@
         <v>15.899999999999999</v>
       </c>
     </row>
-    <row r="138" spans="5:80" x14ac:dyDescent="0.25">
+    <row r="138" spans="5:80" x14ac:dyDescent="0.35">
       <c r="E138" s="2" t="s">
         <v>36</v>
       </c>
@@ -11145,7 +11373,7 @@
       <c r="I138" s="2"/>
       <c r="J138" s="2"/>
     </row>
-    <row r="140" spans="5:80" x14ac:dyDescent="0.25">
+    <row r="140" spans="5:80" x14ac:dyDescent="0.35">
       <c r="E140" t="s">
         <v>37</v>
       </c>
@@ -11161,7 +11389,7 @@
       <c r="W140" s="1"/>
       <c r="X140" s="1"/>
     </row>
-    <row r="141" spans="5:80" x14ac:dyDescent="0.25">
+    <row r="141" spans="5:80" x14ac:dyDescent="0.35">
       <c r="E141" t="s">
         <v>2</v>
       </c>
@@ -11217,7 +11445,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="142" spans="5:80" x14ac:dyDescent="0.25">
+    <row r="142" spans="5:80" x14ac:dyDescent="0.35">
       <c r="E142">
         <v>2802</v>
       </c>
@@ -11261,7 +11489,7 @@
       <c r="W142" s="1"/>
       <c r="X142" s="1"/>
     </row>
-    <row r="143" spans="5:80" x14ac:dyDescent="0.25">
+    <row r="143" spans="5:80" x14ac:dyDescent="0.35">
       <c r="E143">
         <v>2895</v>
       </c>
@@ -11305,7 +11533,7 @@
       <c r="W143" s="1"/>
       <c r="X143" s="1"/>
     </row>
-    <row r="144" spans="5:80" x14ac:dyDescent="0.25">
+    <row r="144" spans="5:80" x14ac:dyDescent="0.35">
       <c r="E144">
         <v>2930</v>
       </c>
@@ -11349,7 +11577,7 @@
       <c r="W144" s="1"/>
       <c r="X144" s="1"/>
     </row>
-    <row r="145" spans="5:24" x14ac:dyDescent="0.25">
+    <row r="145" spans="5:24" x14ac:dyDescent="0.35">
       <c r="E145">
         <v>3580</v>
       </c>
@@ -11393,7 +11621,7 @@
       <c r="W145" s="1"/>
       <c r="X145" s="1"/>
     </row>
-    <row r="146" spans="5:24" x14ac:dyDescent="0.25">
+    <row r="146" spans="5:24" x14ac:dyDescent="0.35">
       <c r="E146">
         <v>3801</v>
       </c>
@@ -11437,7 +11665,7 @@
       <c r="W146" s="1"/>
       <c r="X146" s="1"/>
     </row>
-    <row r="147" spans="5:24" x14ac:dyDescent="0.25">
+    <row r="147" spans="5:24" x14ac:dyDescent="0.35">
       <c r="E147">
         <v>2311</v>
       </c>
@@ -11481,7 +11709,7 @@
       <c r="W147" s="1"/>
       <c r="X147" s="1"/>
     </row>
-    <row r="148" spans="5:24" x14ac:dyDescent="0.25">
+    <row r="148" spans="5:24" x14ac:dyDescent="0.35">
       <c r="E148">
         <v>4122</v>
       </c>
@@ -11525,7 +11753,7 @@
       <c r="W148" s="1"/>
       <c r="X148" s="1"/>
     </row>
-    <row r="149" spans="5:24" x14ac:dyDescent="0.25">
+    <row r="149" spans="5:24" x14ac:dyDescent="0.35">
       <c r="E149">
         <v>4011</v>
       </c>
@@ -11569,7 +11797,7 @@
       <c r="W149" s="1"/>
       <c r="X149" s="1"/>
     </row>
-    <row r="150" spans="5:24" x14ac:dyDescent="0.25">
+    <row r="150" spans="5:24" x14ac:dyDescent="0.35">
       <c r="E150">
         <v>2292</v>
       </c>
@@ -11613,7 +11841,7 @@
       <c r="W150" s="1"/>
       <c r="X150" s="1"/>
     </row>
-    <row r="151" spans="5:24" x14ac:dyDescent="0.25">
+    <row r="151" spans="5:24" x14ac:dyDescent="0.35">
       <c r="E151">
         <v>4062</v>
       </c>
@@ -11657,7 +11885,7 @@
       <c r="W151" s="1"/>
       <c r="X151" s="1"/>
     </row>
-    <row r="152" spans="5:24" x14ac:dyDescent="0.25">
+    <row r="152" spans="5:24" x14ac:dyDescent="0.35">
       <c r="S152" s="1"/>
       <c r="T152" s="1"/>
       <c r="U152" s="1"/>
@@ -11665,53 +11893,53 @@
       <c r="W152" s="1"/>
       <c r="X152" s="1"/>
     </row>
-    <row r="153" spans="5:24" x14ac:dyDescent="0.25">
+    <row r="153" spans="5:24" x14ac:dyDescent="0.35">
       <c r="E153">
-        <f t="shared" ref="E153:J153" si="45" xml:space="preserve"> AVERAGE(E142:E151)</f>
+        <f t="shared" ref="E153:J153" si="46" xml:space="preserve"> AVERAGE(E142:E151)</f>
         <v>3280.6</v>
       </c>
       <c r="F153">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>501.7</v>
       </c>
       <c r="G153">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>2700.4</v>
       </c>
       <c r="H153">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>53.3</v>
       </c>
       <c r="I153">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>25.2</v>
       </c>
       <c r="J153">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>968929.2</v>
       </c>
       <c r="L153">
-        <f t="shared" ref="L153:Q153" si="46" xml:space="preserve"> AVERAGE(L142:L151)</f>
+        <f t="shared" ref="L153:Q153" si="47" xml:space="preserve"> AVERAGE(L142:L151)</f>
         <v>3139.7</v>
       </c>
       <c r="M153">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>494</v>
       </c>
       <c r="N153">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>2564.6999999999998</v>
       </c>
       <c r="O153">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>56</v>
       </c>
       <c r="P153">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>25</v>
       </c>
       <c r="Q153">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>968929.2</v>
       </c>
       <c r="S153" s="1"/>
@@ -11721,7 +11949,7 @@
       <c r="W153" s="1"/>
       <c r="X153" s="1"/>
     </row>
-    <row r="154" spans="5:24" x14ac:dyDescent="0.25">
+    <row r="154" spans="5:24" x14ac:dyDescent="0.35">
       <c r="I154">
         <f>SUM(H153:I153)</f>
         <v>78.5</v>
